--- a/Cluster.xlsx
+++ b/Cluster.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f87ef14dca17975d/UVG/7to. Semestre/Mineria de datos/Mineria_proyecto_01/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_B892CDEFBAB13F7EF78282897272BB3DE2DAA895" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6AD2DAB5-4269-4464-AE61-7262189B98C9}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="11_B892CDEFBAB13F7EF78282897272BB3DE2DAA895" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A1478CB4-A5ED-42B0-8336-996C9537F047}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$A$1:$I$869</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="876">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="877">
   <si>
     <t>Group.1</t>
   </si>
@@ -2648,6 +2661,9 @@
   </si>
   <si>
     <t>ZX</t>
+  </si>
+  <si>
+    <t>Grupo</t>
   </si>
 </sst>
 </file>
@@ -2663,12 +2679,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -2683,8 +2705,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2981,10 +3004,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H869"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:I869"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="F875" sqref="F875"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2992,7 +3016,7 @@
     <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3017,8 +3041,11 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -3044,7 +3071,7 @@
         <v>391.81</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -3070,7 +3097,7 @@
         <v>11866.19</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -3096,7 +3123,7 @@
         <v>5564.14</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -3122,7 +3149,7 @@
         <v>2706.12576859504</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -3148,7 +3175,7 @@
         <v>3844.3</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -3174,7 +3201,7 @@
         <v>3627.71</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -3200,7 +3227,7 @@
         <v>664.37</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -3226,7 +3253,7 @@
         <v>771.54</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -3252,7 +3279,7 @@
         <v>2448.2600000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -3278,7 +3305,7 @@
         <v>2548.79</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -3304,7 +3331,7 @@
         <v>17771.099999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -3330,7 +3357,7 @@
         <v>496.86</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -3356,7 +3383,7 @@
         <v>4541.7450793650796</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -3382,7 +3409,7 @@
         <v>2965.99</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -3408,7 +3435,7 @@
         <v>9702.4210714285691</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -3434,7 +3461,7 @@
         <v>1979.175</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -3460,7 +3487,7 @@
         <v>4401.83</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -3486,7 +3513,7 @@
         <v>3548.84</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>26</v>
       </c>
@@ -3512,7 +3539,7 @@
         <v>802.69</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -3538,7 +3565,7 @@
         <v>5754.4266666666699</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -3564,7 +3591,7 @@
         <v>5671.4522222222204</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -3590,7 +3617,7 @@
         <v>3552.51</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -3616,7 +3643,7 @@
         <v>15949.905000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -3642,7 +3669,7 @@
         <v>5701.4</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -3668,7 +3695,7 @@
         <v>7041.5806249999996</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -3694,7 +3721,7 @@
         <v>4319.3999999999996</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -3720,7 +3747,7 @@
         <v>4370.5666666666702</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -3746,7 +3773,7 @@
         <v>6786.05</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -3772,7 +3799,7 @@
         <v>5749.87</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>37</v>
       </c>
@@ -3798,7 +3825,7 @@
         <v>4934.7</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>38</v>
       </c>
@@ -3824,7 +3851,7 @@
         <v>8495.1333333333296</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>39</v>
       </c>
@@ -3850,7 +3877,7 @@
         <v>6494.61</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>40</v>
       </c>
@@ -3876,7 +3903,7 @@
         <v>3070.51</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -3902,7 +3929,7 @@
         <v>25739.23</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>42</v>
       </c>
@@ -3928,7 +3955,7 @@
         <v>64708.05</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>43</v>
       </c>
@@ -3954,7 +3981,7 @@
         <v>587.65</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -3980,7 +4007,7 @@
         <v>926.83294117647097</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>45</v>
       </c>
@@ -4006,7 +4033,7 @@
         <v>5789.97565217391</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>46</v>
       </c>
@@ -4032,7 +4059,7 @@
         <v>9930.9125000000004</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>47</v>
       </c>
@@ -4058,7 +4085,7 @@
         <v>2390.7449999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>48</v>
       </c>
@@ -4084,7 +4111,7 @@
         <v>2618.44</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>49</v>
       </c>
@@ -4110,7 +4137,7 @@
         <v>10102.951428571399</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>50</v>
       </c>
@@ -4136,7 +4163,7 @@
         <v>167886.72</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>51</v>
       </c>
@@ -4162,7 +4189,7 @@
         <v>1485.46</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>52</v>
       </c>
@@ -4188,7 +4215,7 @@
         <v>36130.826802830503</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>53</v>
       </c>
@@ -4214,7 +4241,7 @@
         <v>7735.59</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>54</v>
       </c>
@@ -4240,7 +4267,7 @@
         <v>4772.8999999999996</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>55</v>
       </c>
@@ -4266,7 +4293,7 @@
         <v>3684.47</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>56</v>
       </c>
@@ -4292,7 +4319,7 @@
         <v>369.32</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>57</v>
       </c>
@@ -4318,7 +4345,7 @@
         <v>111595.2825</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>58</v>
       </c>
@@ -4344,7 +4371,7 @@
         <v>19624.464</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>59</v>
       </c>
@@ -4370,7 +4397,7 @@
         <v>80521.533076923093</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>60</v>
       </c>
@@ -4396,7 +4423,7 @@
         <v>19949.400155440399</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>61</v>
       </c>
@@ -4422,7 +4449,7 @@
         <v>15588.8</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>62</v>
       </c>
@@ -4448,7 +4475,7 @@
         <v>4720.4833333333299</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>63</v>
       </c>
@@ -4474,7 +4501,7 @@
         <v>5422.5533333333296</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>64</v>
       </c>
@@ -4500,7 +4527,7 @@
         <v>3083.18</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>65</v>
       </c>
@@ -4526,7 +4553,7 @@
         <v>29806.785506912402</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>66</v>
       </c>
@@ -4552,7 +4579,7 @@
         <v>4198.6806060606104</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>67</v>
       </c>
@@ -4578,7 +4605,7 @@
         <v>92362.37</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>68</v>
       </c>
@@ -4604,33 +4631,36 @@
         <v>735.51967741935505</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="1">
         <v>2017</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="1">
         <v>152.49070246085</v>
       </c>
-      <c r="D63">
-        <v>2</v>
-      </c>
-      <c r="E63">
-        <v>0</v>
-      </c>
-      <c r="F63">
+      <c r="D63" s="1">
+        <v>2</v>
+      </c>
+      <c r="E63" s="1">
+        <v>0</v>
+      </c>
+      <c r="F63" s="1">
         <v>1.78970917225951E-5</v>
       </c>
-      <c r="G63">
+      <c r="G63" s="1">
         <v>1727165.18575678</v>
       </c>
-      <c r="H63">
+      <c r="H63" s="1">
         <v>207274.58293762899</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I63" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>70</v>
       </c>
@@ -4656,7 +4686,7 @@
         <v>2142.14</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>71</v>
       </c>
@@ -4682,7 +4712,7 @@
         <v>599.29999999999995</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>72</v>
       </c>
@@ -4708,7 +4738,7 @@
         <v>550.1</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>73</v>
       </c>
@@ -4734,7 +4764,7 @@
         <v>18457.735000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>74</v>
       </c>
@@ -4760,7 +4790,7 @@
         <v>8178.165</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>75</v>
       </c>
@@ -4786,7 +4816,7 @@
         <v>3044.47</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>76</v>
       </c>
@@ -4812,7 +4842,7 @@
         <v>9649.8733333333294</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>77</v>
       </c>
@@ -4838,7 +4868,7 @@
         <v>1585.08666666667</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>78</v>
       </c>
@@ -4864,7 +4894,7 @@
         <v>41518.7749300699</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>79</v>
       </c>
@@ -4890,7 +4920,7 @@
         <v>7640.85</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>80</v>
       </c>
@@ -4916,7 +4946,7 @@
         <v>7244.192</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>81</v>
       </c>
@@ -4942,7 +4972,7 @@
         <v>11040.349545454499</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>82</v>
       </c>
@@ -4968,7 +4998,7 @@
         <v>6700.6625000000004</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>83</v>
       </c>
@@ -4994,7 +5024,7 @@
         <v>41155.362481203003</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>84</v>
       </c>
@@ -5020,7 +5050,7 @@
         <v>4607.46</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>85</v>
       </c>
@@ -5046,7 +5076,7 @@
         <v>153758.61499999999</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>86</v>
       </c>
@@ -5072,7 +5102,7 @@
         <v>3155.59</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>87</v>
       </c>
@@ -5098,7 +5128,7 @@
         <v>4863.26</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>88</v>
       </c>
@@ -5124,7 +5154,7 @@
         <v>4592.9250000000002</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>89</v>
       </c>
@@ -5150,7 +5180,7 @@
         <v>5273.59</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>90</v>
       </c>
@@ -5176,7 +5206,7 @@
         <v>4853.9878723404299</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>91</v>
       </c>
@@ -5202,7 +5232,7 @@
         <v>4867.5050000000001</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>92</v>
       </c>
@@ -5228,7 +5258,7 @@
         <v>10398.2552941176</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>93</v>
       </c>
@@ -5254,7 +5284,7 @@
         <v>2304.56</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>94</v>
       </c>
@@ -5280,7 +5310,7 @@
         <v>23346.080000000002</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>95</v>
       </c>
@@ -5306,7 +5336,7 @@
         <v>18239.834999999999</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>96</v>
       </c>
@@ -5332,7 +5362,7 @@
         <v>12449.539199999999</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>97</v>
       </c>
@@ -5358,7 +5388,7 @@
         <v>844.91</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>98</v>
       </c>
@@ -5384,7 +5414,7 @@
         <v>4876.6914527845001</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>99</v>
       </c>
@@ -5410,7 +5440,7 @@
         <v>7314.45</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>100</v>
       </c>
@@ -5436,7 +5466,7 @@
         <v>602.78750000000002</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>101</v>
       </c>
@@ -5462,7 +5492,7 @@
         <v>7705.8907920272704</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>102</v>
       </c>
@@ -5488,7 +5518,7 @@
         <v>4604.3549999999996</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>103</v>
       </c>
@@ -5514,7 +5544,7 @@
         <v>8667.2215789473703</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>104</v>
       </c>
@@ -5540,7 +5570,7 @@
         <v>6795.2466666666696</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>105</v>
       </c>
@@ -5566,7 +5596,7 @@
         <v>3070.4</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>106</v>
       </c>
@@ -5592,7 +5622,7 @@
         <v>51486.14</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>107</v>
       </c>
@@ -5618,7 +5648,7 @@
         <v>5535.03416666667</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>108</v>
       </c>
@@ -5644,7 +5674,7 @@
         <v>9842.5239999999994</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>109</v>
       </c>
@@ -5670,7 +5700,7 @@
         <v>1785.23</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>110</v>
       </c>
@@ -5696,7 +5726,7 @@
         <v>5977.6</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>111</v>
       </c>
@@ -5722,7 +5752,7 @@
         <v>33337.77375</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>112</v>
       </c>
@@ -5748,7 +5778,7 @@
         <v>5245.89</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>113</v>
       </c>
@@ -5774,7 +5804,7 @@
         <v>5894.5529999999999</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>114</v>
       </c>
@@ -5800,7 +5830,7 @@
         <v>5867.665</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>115</v>
       </c>
@@ -5826,7 +5856,7 @@
         <v>4017.3228571428599</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>116</v>
       </c>
@@ -5852,7 +5882,7 @@
         <v>1261.8800000000001</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>117</v>
       </c>
@@ -5878,7 +5908,7 @@
         <v>3117.59810810811</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>118</v>
       </c>
@@ -5904,7 +5934,7 @@
         <v>2007.79</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>119</v>
       </c>
@@ -5930,7 +5960,7 @@
         <v>2389.7736</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>120</v>
       </c>
@@ -5956,7 +5986,7 @@
         <v>4392.8771428571399</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>121</v>
       </c>
@@ -5982,7 +6012,7 @@
         <v>4219.1495833333302</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>122</v>
       </c>
@@ -6008,7 +6038,7 @@
         <v>12862.9614285714</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>123</v>
       </c>
@@ -6034,7 +6064,7 @@
         <v>6880.8360975609803</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>124</v>
       </c>
@@ -6060,7 +6090,7 @@
         <v>8496.3790909090894</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>125</v>
       </c>
@@ -6086,7 +6116,7 @@
         <v>1712.1083333333299</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>126</v>
       </c>
@@ -6112,7 +6142,7 @@
         <v>154333.75</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>127</v>
       </c>
@@ -6138,7 +6168,7 @@
         <v>4633.34</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>128</v>
       </c>
@@ -6164,7 +6194,7 @@
         <v>11659.075999999999</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>129</v>
       </c>
@@ -6190,7 +6220,7 @@
         <v>57782.297083333302</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>130</v>
       </c>
@@ -6216,7 +6246,7 @@
         <v>7139.2357142857099</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>131</v>
       </c>
@@ -6242,7 +6272,7 @@
         <v>527.12</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>132</v>
       </c>
@@ -6268,7 +6298,7 @@
         <v>4509.5150000000003</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>133</v>
       </c>
@@ -6294,7 +6324,7 @@
         <v>6972.41</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>134</v>
       </c>
@@ -6320,7 +6350,7 @@
         <v>55926.474999999999</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>135</v>
       </c>
@@ -6346,7 +6376,7 @@
         <v>20384.189999999999</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>136</v>
       </c>
@@ -6372,7 +6402,7 @@
         <v>2575.12</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>137</v>
       </c>
@@ -6398,7 +6428,7 @@
         <v>4506</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>138</v>
       </c>
@@ -6424,33 +6454,36 @@
         <v>30764.5814285714</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A133" t="s">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A133" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B133">
+      <c r="B133" s="1">
         <v>2004</v>
       </c>
-      <c r="C133">
+      <c r="C133" s="1">
         <v>7271.2</v>
       </c>
-      <c r="D133">
+      <c r="D133" s="1">
         <v>1</v>
       </c>
-      <c r="E133">
+      <c r="E133" s="1">
         <v>1</v>
       </c>
-      <c r="F133">
+      <c r="F133" s="1">
         <v>8.76</v>
       </c>
-      <c r="G133">
+      <c r="G133" s="1">
         <v>513368.908</v>
       </c>
-      <c r="H133">
+      <c r="H133" s="1">
         <v>61604.27</v>
       </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I133" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>140</v>
       </c>
@@ -6476,7 +6509,7 @@
         <v>99898.060298507495</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>141</v>
       </c>
@@ -6502,7 +6535,7 @@
         <v>4260.2280000000001</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>142</v>
       </c>
@@ -6528,7 +6561,7 @@
         <v>13912.93</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>143</v>
       </c>
@@ -6554,7 +6587,7 @@
         <v>4588.01</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>144</v>
       </c>
@@ -6580,7 +6613,7 @@
         <v>3062.8225301204802</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>145</v>
       </c>
@@ -6606,7 +6639,7 @@
         <v>97573.4</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>146</v>
       </c>
@@ -6632,7 +6665,7 @@
         <v>7689.3033333333296</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>147</v>
       </c>
@@ -6658,7 +6691,7 @@
         <v>4612.05</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>148</v>
       </c>
@@ -6684,7 +6717,7 @@
         <v>4681.8599999999997</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>149</v>
       </c>
@@ -6710,7 +6743,7 @@
         <v>38084.867051792797</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>150</v>
       </c>
@@ -6736,7 +6769,7 @@
         <v>3729.26</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>151</v>
       </c>
@@ -6762,7 +6795,7 @@
         <v>6667.27</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>152</v>
       </c>
@@ -6788,7 +6821,7 @@
         <v>5115.66644859813</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>153</v>
       </c>
@@ -6814,7 +6847,7 @@
         <v>5345.97</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>154</v>
       </c>
@@ -6840,7 +6873,7 @@
         <v>10641.64</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>155</v>
       </c>
@@ -6866,7 +6899,7 @@
         <v>3650.01</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>156</v>
       </c>
@@ -6892,7 +6925,7 @@
         <v>6258.11</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>157</v>
       </c>
@@ -6918,7 +6951,7 @@
         <v>12834.7777106296</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>158</v>
       </c>
@@ -6944,7 +6977,7 @@
         <v>3988.22</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>159</v>
       </c>
@@ -6970,7 +7003,7 @@
         <v>805.36</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>160</v>
       </c>
@@ -6996,7 +7029,7 @@
         <v>524.57000000000005</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>161</v>
       </c>
@@ -7022,7 +7055,7 @@
         <v>1730.9</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>162</v>
       </c>
@@ -7048,7 +7081,7 @@
         <v>1641.47</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>163</v>
       </c>
@@ -7074,7 +7107,7 @@
         <v>3093.2149462365601</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>164</v>
       </c>
@@ -7100,7 +7133,7 @@
         <v>826.56</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>165</v>
       </c>
@@ -7126,7 +7159,7 @@
         <v>5755.46793103448</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>166</v>
       </c>
@@ -7152,7 +7185,7 @@
         <v>10265.524242424201</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>167</v>
       </c>
@@ -7178,7 +7211,7 @@
         <v>5067.0510000000004</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>168</v>
       </c>
@@ -7204,7 +7237,7 @@
         <v>3304.06</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>169</v>
       </c>
@@ -7230,7 +7263,7 @@
         <v>1032.75</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>170</v>
       </c>
@@ -7256,7 +7289,7 @@
         <v>4111.13</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>171</v>
       </c>
@@ -7282,7 +7315,7 @@
         <v>6233.7349999999997</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>172</v>
       </c>
@@ -7308,7 +7341,7 @@
         <v>10226.8608227848</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>173</v>
       </c>
@@ -7334,7 +7367,7 @@
         <v>6389.7124999999996</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>174</v>
       </c>
@@ -7360,7 +7393,7 @@
         <v>622.26</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>175</v>
       </c>
@@ -7386,7 +7419,7 @@
         <v>7142.93</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>176</v>
       </c>
@@ -7412,7 +7445,7 @@
         <v>6256.7224999999999</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>177</v>
       </c>
@@ -7438,7 +7471,7 @@
         <v>3687.4</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>178</v>
       </c>
@@ -7464,7 +7497,7 @@
         <v>46945.18</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>179</v>
       </c>
@@ -7490,7 +7523,7 @@
         <v>6937.93</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>180</v>
       </c>
@@ -7516,7 +7549,7 @@
         <v>8213.5766666666696</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>181</v>
       </c>
@@ -7542,7 +7575,7 @@
         <v>3657.41142857143</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>182</v>
       </c>
@@ -7568,7 +7601,7 @@
         <v>3835.7266666666701</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>183</v>
       </c>
@@ -7594,7 +7627,7 @@
         <v>9702.33</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>184</v>
       </c>
@@ -7620,7 +7653,7 @@
         <v>1052.5999999999999</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>185</v>
       </c>
@@ -7646,7 +7679,7 @@
         <v>1099.08</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>186</v>
       </c>
@@ -7672,7 +7705,7 @@
         <v>665.50800000000004</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>187</v>
       </c>
@@ -7698,7 +7731,7 @@
         <v>356.08</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>188</v>
       </c>
@@ -7724,7 +7757,7 @@
         <v>1246.93</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>189</v>
       </c>
@@ -7750,7 +7783,7 @@
         <v>6744.085</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>190</v>
       </c>
@@ -7776,7 +7809,7 @@
         <v>5240.06487804878</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>191</v>
       </c>
@@ -7802,7 +7835,7 @@
         <v>9937.82</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>192</v>
       </c>
@@ -7828,7 +7861,7 @@
         <v>104698.35666666699</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>193</v>
       </c>
@@ -7854,7 +7887,7 @@
         <v>7084.38</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>194</v>
       </c>
@@ -7880,7 +7913,7 @@
         <v>6889.1</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>195</v>
       </c>
@@ -7906,7 +7939,7 @@
         <v>8271.5846153846196</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>196</v>
       </c>
@@ -7932,7 +7965,7 @@
         <v>43975.836666666699</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>197</v>
       </c>
@@ -7958,7 +7991,7 @@
         <v>60627.06</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>198</v>
       </c>
@@ -7984,7 +8017,7 @@
         <v>13523.21</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>199</v>
       </c>
@@ -8010,7 +8043,7 @@
         <v>2230.4833333333299</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>200</v>
       </c>
@@ -8036,7 +8069,7 @@
         <v>538.79999999999995</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>201</v>
       </c>
@@ -8062,7 +8095,7 @@
         <v>1754.0150000000001</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>202</v>
       </c>
@@ -8088,7 +8121,7 @@
         <v>974.61</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>203</v>
       </c>
@@ -8114,7 +8147,7 @@
         <v>15968.2705806452</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>204</v>
       </c>
@@ -8140,7 +8173,7 @@
         <v>2529.77</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>205</v>
       </c>
@@ -8166,7 +8199,7 @@
         <v>684.40499999999997</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>206</v>
       </c>
@@ -8192,7 +8225,7 @@
         <v>3014.9724999999999</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>207</v>
       </c>
@@ -8218,7 +8251,7 @@
         <v>1858.2750000000001</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>208</v>
       </c>
@@ -8244,7 +8277,7 @@
         <v>2321.9848979591802</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>209</v>
       </c>
@@ -8270,7 +8303,7 @@
         <v>2395.92</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>210</v>
       </c>
@@ -8296,7 +8329,7 @@
         <v>60646.42</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>211</v>
       </c>
@@ -8322,7 +8355,7 @@
         <v>5072.3266666666696</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>212</v>
       </c>
@@ -8348,7 +8381,7 @@
         <v>5959.66</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>213</v>
       </c>
@@ -8374,7 +8407,7 @@
         <v>2212.61</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>214</v>
       </c>
@@ -8400,7 +8433,7 @@
         <v>7733.28</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>215</v>
       </c>
@@ -8426,7 +8459,7 @@
         <v>817122.93</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>216</v>
       </c>
@@ -8452,7 +8485,7 @@
         <v>485.55</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>217</v>
       </c>
@@ -8478,7 +8511,7 @@
         <v>9017.4619999999995</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>218</v>
       </c>
@@ -8504,7 +8537,7 @@
         <v>5272.97</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>219</v>
       </c>
@@ -8530,7 +8563,7 @@
         <v>388.72</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>220</v>
       </c>
@@ -8556,7 +8589,7 @@
         <v>5075.9772727272702</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>221</v>
       </c>
@@ -8582,7 +8615,7 @@
         <v>1345.0225</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>222</v>
       </c>
@@ -8608,7 +8641,7 @@
         <v>4939.3</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>223</v>
       </c>
@@ -8634,7 +8667,7 @@
         <v>4821.67</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>224</v>
       </c>
@@ -8660,7 +8693,7 @@
         <v>30329.360617283899</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>225</v>
       </c>
@@ -8686,7 +8719,7 @@
         <v>346.44</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>226</v>
       </c>
@@ -8712,7 +8745,7 @@
         <v>6738.7122638248802</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>227</v>
       </c>
@@ -8738,7 +8771,7 @@
         <v>856.60285714285703</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>228</v>
       </c>
@@ -8764,7 +8797,7 @@
         <v>6310.88</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>229</v>
       </c>
@@ -8790,7 +8823,7 @@
         <v>4522.68</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>230</v>
       </c>
@@ -8816,7 +8849,7 @@
         <v>3392.71</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>231</v>
       </c>
@@ -8842,7 +8875,7 @@
         <v>3276.5949999999998</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>232</v>
       </c>
@@ -8868,7 +8901,7 @@
         <v>4952.5150226244295</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>233</v>
       </c>
@@ -8894,7 +8927,7 @@
         <v>7343.57</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>234</v>
       </c>
@@ -8920,7 +8953,7 @@
         <v>2973.55</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>235</v>
       </c>
@@ -8946,7 +8979,7 @@
         <v>4931.26</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>236</v>
       </c>
@@ -8972,7 +9005,7 @@
         <v>8744.8281725888301</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>237</v>
       </c>
@@ -8998,7 +9031,7 @@
         <v>15477.19</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>238</v>
       </c>
@@ -9024,7 +9057,7 @@
         <v>5114.5249999999996</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>239</v>
       </c>
@@ -9050,7 +9083,7 @@
         <v>8289.8523076923102</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>240</v>
       </c>
@@ -9076,7 +9109,7 @@
         <v>645.82000000000005</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>241</v>
       </c>
@@ -9102,7 +9135,7 @@
         <v>8375.6871428571394</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>242</v>
       </c>
@@ -9128,7 +9161,7 @@
         <v>504.38</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>243</v>
       </c>
@@ -9154,7 +9187,7 @@
         <v>6485.59294117647</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>244</v>
       </c>
@@ -9180,7 +9213,7 @@
         <v>4834.1180000000004</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>245</v>
       </c>
@@ -9206,7 +9239,7 @@
         <v>551.72</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>246</v>
       </c>
@@ -9232,7 +9265,7 @@
         <v>1821.828</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>247</v>
       </c>
@@ -9258,7 +9291,7 @@
         <v>6171.31</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>248</v>
       </c>
@@ -9284,7 +9317,7 @@
         <v>167288.60666666701</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>249</v>
       </c>
@@ -9310,7 +9343,7 @@
         <v>11943.6</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>250</v>
       </c>
@@ -9336,7 +9369,7 @@
         <v>6434.11</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>251</v>
       </c>
@@ -9362,7 +9395,7 @@
         <v>5667.27</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>252</v>
       </c>
@@ -9388,7 +9421,7 @@
         <v>8716.1200000000008</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>253</v>
       </c>
@@ -9414,7 +9447,7 @@
         <v>620.31818181818198</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>254</v>
       </c>
@@ -9440,7 +9473,7 @@
         <v>9734.17</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>255</v>
       </c>
@@ -9466,7 +9499,7 @@
         <v>146608.23444444401</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>256</v>
       </c>
@@ -9492,7 +9525,7 @@
         <v>97992.477323943705</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>257</v>
       </c>
@@ -9518,7 +9551,7 @@
         <v>4096.8</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>258</v>
       </c>
@@ -9544,7 +9577,7 @@
         <v>7287.4842857142903</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>259</v>
       </c>
@@ -9570,7 +9603,7 @@
         <v>676.69</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>260</v>
       </c>
@@ -9596,7 +9629,7 @@
         <v>859.85058823529403</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>261</v>
       </c>
@@ -9622,7 +9655,7 @@
         <v>4827.5</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>262</v>
       </c>
@@ -9648,7 +9681,7 @@
         <v>55381.458749999998</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>263</v>
       </c>
@@ -9674,7 +9707,7 @@
         <v>13891.055</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>264</v>
       </c>
@@ -9700,7 +9733,7 @@
         <v>1564.19</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>265</v>
       </c>
@@ -9726,7 +9759,7 @@
         <v>1116.23</v>
       </c>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>266</v>
       </c>
@@ -9752,7 +9785,7 @@
         <v>679.03499999999997</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>267</v>
       </c>
@@ -9778,7 +9811,7 @@
         <v>115303.81</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>268</v>
       </c>
@@ -9804,7 +9837,7 @@
         <v>9069.56</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>269</v>
       </c>
@@ -9830,7 +9863,7 @@
         <v>3084.49</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>270</v>
       </c>
@@ -9856,7 +9889,7 @@
         <v>2599.25</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>271</v>
       </c>
@@ -9882,7 +9915,7 @@
         <v>13971.1145771144</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>272</v>
       </c>
@@ -9908,7 +9941,7 @@
         <v>2584.5</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>273</v>
       </c>
@@ -9934,7 +9967,7 @@
         <v>4151.7700000000004</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>274</v>
       </c>
@@ -9960,7 +9993,7 @@
         <v>93018.017500000002</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>275</v>
       </c>
@@ -9986,7 +10019,7 @@
         <v>7654.0806484149898</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>276</v>
       </c>
@@ -10012,7 +10045,7 @@
         <v>219245.6</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>277</v>
       </c>
@@ -10038,7 +10071,7 @@
         <v>7157.415</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>278</v>
       </c>
@@ -10064,7 +10097,7 @@
         <v>5288.28</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>279</v>
       </c>
@@ -10090,7 +10123,7 @@
         <v>6055.71</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>280</v>
       </c>
@@ -10116,7 +10149,7 @@
         <v>2979.86</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>281</v>
       </c>
@@ -10142,7 +10175,7 @@
         <v>5878.7342148760299</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>282</v>
       </c>
@@ -10168,7 +10201,7 @@
         <v>10245.801692073201</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>283</v>
       </c>
@@ -10194,7 +10227,7 @@
         <v>4903.62</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>284</v>
       </c>
@@ -10220,7 +10253,7 @@
         <v>11107.888000000001</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>285</v>
       </c>
@@ -10246,7 +10279,7 @@
         <v>52405.45</v>
       </c>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>286</v>
       </c>
@@ -10272,7 +10305,7 @@
         <v>675.92</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>287</v>
       </c>
@@ -10298,7 +10331,7 @@
         <v>82747.932258064495</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>288</v>
       </c>
@@ -10324,7 +10357,7 @@
         <v>21591.395</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>289</v>
       </c>
@@ -10350,7 +10383,7 @@
         <v>316957.59999999998</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>290</v>
       </c>
@@ -10376,7 +10409,7 @@
         <v>119635.864688851</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>291</v>
       </c>
@@ -10402,7 +10435,7 @@
         <v>7229.9331292602901</v>
       </c>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>292</v>
       </c>
@@ -10428,7 +10461,7 @@
         <v>9141.7310810810795</v>
       </c>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>293</v>
       </c>
@@ -10454,7 +10487,7 @@
         <v>8253.4147272727296</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>294</v>
       </c>
@@ -10480,7 +10513,7 @@
         <v>4725.1966666666704</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>295</v>
       </c>
@@ -10506,7 +10539,7 @@
         <v>5456.9418907563004</v>
       </c>
     </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>296</v>
       </c>
@@ -10532,7 +10565,7 @@
         <v>30120.11</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>297</v>
       </c>
@@ -10558,7 +10591,7 @@
         <v>970.61666666666702</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>298</v>
       </c>
@@ -10584,7 +10617,7 @@
         <v>56742.706019417499</v>
       </c>
     </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>299</v>
       </c>
@@ -10610,7 +10643,7 @@
         <v>55550.753333333298</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>300</v>
       </c>
@@ -10636,7 +10669,7 @@
         <v>950.97</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>301</v>
       </c>
@@ -10662,7 +10695,7 @@
         <v>2585.1880555555599</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>302</v>
       </c>
@@ -10688,7 +10721,7 @@
         <v>7866.91</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>303</v>
       </c>
@@ -10714,7 +10747,7 @@
         <v>680.6</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>304</v>
       </c>
@@ -10740,7 +10773,7 @@
         <v>3043.54</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>305</v>
       </c>
@@ -10766,7 +10799,7 @@
         <v>4767.34</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>306</v>
       </c>
@@ -10792,7 +10825,7 @@
         <v>22623.681445830101</v>
       </c>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>307</v>
       </c>
@@ -10818,7 +10851,7 @@
         <v>7545.08</v>
       </c>
     </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>308</v>
       </c>
@@ -10844,7 +10877,7 @@
         <v>557.77850000000001</v>
       </c>
     </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>309</v>
       </c>
@@ -10870,7 +10903,7 @@
         <v>1732.6845454545501</v>
       </c>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>310</v>
       </c>
@@ -10896,7 +10929,7 @@
         <v>214792.06</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>311</v>
       </c>
@@ -10922,7 +10955,7 @@
         <v>345533.48666666698</v>
       </c>
     </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>312</v>
       </c>
@@ -10948,7 +10981,7 @@
         <v>4607.4789189189196</v>
       </c>
     </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>313</v>
       </c>
@@ -10974,7 +11007,7 @@
         <v>2598.34</v>
       </c>
     </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>314</v>
       </c>
@@ -11000,7 +11033,7 @@
         <v>2597.1999999999998</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>315</v>
       </c>
@@ -11026,7 +11059,7 @@
         <v>4231.058</v>
       </c>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>316</v>
       </c>
@@ -11052,7 +11085,7 @@
         <v>2340.2399999999998</v>
       </c>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>317</v>
       </c>
@@ -11078,7 +11111,7 @@
         <v>4794.0842335186699</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>318</v>
       </c>
@@ -11104,7 +11137,7 @@
         <v>170.7</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>319</v>
       </c>
@@ -11130,33 +11163,36 @@
         <v>11228.5133333333</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A314" t="s">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A314" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="B314">
+      <c r="B314" s="1">
         <v>2011</v>
       </c>
-      <c r="C314">
+      <c r="C314" s="1">
         <v>1</v>
       </c>
-      <c r="D314">
-        <v>0</v>
-      </c>
-      <c r="E314">
-        <v>0</v>
-      </c>
-      <c r="F314">
+      <c r="D314" s="1">
+        <v>0</v>
+      </c>
+      <c r="E314" s="1">
+        <v>0</v>
+      </c>
+      <c r="F314" s="1">
         <v>95.9166666666667</v>
       </c>
-      <c r="G314">
+      <c r="G314" s="1">
         <v>561999.48416666698</v>
       </c>
-      <c r="H314">
+      <c r="H314" s="1">
         <v>130204.448333333</v>
       </c>
-    </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I314" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>321</v>
       </c>
@@ -11182,7 +11218,7 @@
         <v>2642.97</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>322</v>
       </c>
@@ -11208,7 +11244,7 @@
         <v>9159.75</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>323</v>
       </c>
@@ -11234,7 +11270,7 @@
         <v>5834.7226666666702</v>
       </c>
     </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>324</v>
       </c>
@@ -11260,7 +11296,7 @@
         <v>7436.6892793791603</v>
       </c>
     </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>325</v>
       </c>
@@ -11286,7 +11322,7 @@
         <v>14632.61</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>326</v>
       </c>
@@ -11312,7 +11348,7 @@
         <v>3067.74</v>
       </c>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>327</v>
       </c>
@@ -11338,7 +11374,7 @@
         <v>54308.715833333299</v>
       </c>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>328</v>
       </c>
@@ -11364,7 +11400,7 @@
         <v>3920.8449999999998</v>
       </c>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>329</v>
       </c>
@@ -11390,7 +11426,7 @@
         <v>1891.81</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>330</v>
       </c>
@@ -11416,7 +11452,7 @@
         <v>5582.28</v>
       </c>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>331</v>
       </c>
@@ -11442,7 +11478,7 @@
         <v>8848.4116666666705</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>332</v>
       </c>
@@ -11468,7 +11504,7 @@
         <v>41213.346809051996</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>333</v>
       </c>
@@ -11494,7 +11530,7 @@
         <v>3070.27</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>334</v>
       </c>
@@ -11520,7 +11556,7 @@
         <v>28994.6675</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>335</v>
       </c>
@@ -11546,7 +11582,7 @@
         <v>4606.7278367346898</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>336</v>
       </c>
@@ -11572,7 +11608,7 @@
         <v>4697.0685714285701</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>337</v>
       </c>
@@ -11598,7 +11634,7 @@
         <v>4368.90333333333</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>338</v>
       </c>
@@ -11624,7 +11660,7 @@
         <v>3657.0650000000001</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>339</v>
       </c>
@@ -11650,7 +11686,7 @@
         <v>4654.7128571428602</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>340</v>
       </c>
@@ -11676,7 +11712,7 @@
         <v>11166.321764705899</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>341</v>
       </c>
@@ -11702,7 +11738,7 @@
         <v>28674.47</v>
       </c>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>342</v>
       </c>
@@ -11728,7 +11764,7 @@
         <v>698.72666666666703</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>343</v>
       </c>
@@ -11754,7 +11790,7 @@
         <v>2611.37</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>344</v>
       </c>
@@ -11780,7 +11816,7 @@
         <v>13924.0068627451</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>345</v>
       </c>
@@ -11806,7 +11842,7 @@
         <v>51527.144282005102</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>346</v>
       </c>
@@ -11832,7 +11868,7 @@
         <v>25624.293333333299</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>347</v>
       </c>
@@ -11858,7 +11894,7 @@
         <v>2729.11</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>348</v>
       </c>
@@ -11884,7 +11920,7 @@
         <v>2603.2420000000002</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>349</v>
       </c>
@@ -11910,7 +11946,7 @@
         <v>5377.69</v>
       </c>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>350</v>
       </c>
@@ -11936,7 +11972,7 @@
         <v>53357.222609463999</v>
       </c>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>351</v>
       </c>
@@ -11962,7 +11998,7 @@
         <v>6159.1025</v>
       </c>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>352</v>
       </c>
@@ -11988,7 +12024,7 @@
         <v>5147.5249999999996</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>353</v>
       </c>
@@ -12014,7 +12050,7 @@
         <v>4271.65333333333</v>
       </c>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>354</v>
       </c>
@@ -12040,7 +12076,7 @@
         <v>14269.4066666667</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>355</v>
       </c>
@@ -12066,7 +12102,7 @@
         <v>2943.6633333333298</v>
       </c>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>356</v>
       </c>
@@ -12092,7 +12128,7 @@
         <v>3115.7576470588201</v>
       </c>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>357</v>
       </c>
@@ -12118,33 +12154,36 @@
         <v>3839.45</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A352" t="s">
+    <row r="352" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A352" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="B352">
+      <c r="B352" s="1">
         <v>2012</v>
       </c>
-      <c r="C352">
+      <c r="C352" s="1">
         <v>953.04279366426601</v>
       </c>
-      <c r="D352">
+      <c r="D352" s="1">
         <v>3</v>
       </c>
-      <c r="E352">
-        <v>2</v>
-      </c>
-      <c r="F352">
+      <c r="E352" s="1">
+        <v>2</v>
+      </c>
+      <c r="F352" s="1">
         <v>2.28316087721707E-3</v>
       </c>
-      <c r="G352">
+      <c r="G352" s="1">
         <v>719322.46923774004</v>
       </c>
-      <c r="H352">
+      <c r="H352" s="1">
         <v>86318.777042762493</v>
       </c>
-    </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I352" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="353" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>359</v>
       </c>
@@ -12170,7 +12209,7 @@
         <v>1930.79</v>
       </c>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>360</v>
       </c>
@@ -12196,7 +12235,7 @@
         <v>10515.19</v>
       </c>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>361</v>
       </c>
@@ -12222,7 +12261,7 @@
         <v>48711.040000000001</v>
       </c>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>362</v>
       </c>
@@ -12248,7 +12287,7 @@
         <v>35285.879999999997</v>
       </c>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>363</v>
       </c>
@@ -12274,7 +12313,7 @@
         <v>6696.18</v>
       </c>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>364</v>
       </c>
@@ -12300,7 +12339,7 @@
         <v>3316.6550000000002</v>
       </c>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>365</v>
       </c>
@@ -12326,7 +12365,7 @@
         <v>474.12</v>
       </c>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>366</v>
       </c>
@@ -12352,7 +12391,7 @@
         <v>5131.2049999999999</v>
       </c>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>367</v>
       </c>
@@ -12378,7 +12417,7 @@
         <v>39426.15</v>
       </c>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>368</v>
       </c>
@@ -12404,7 +12443,7 @@
         <v>5406.1968103448298</v>
       </c>
     </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>369</v>
       </c>
@@ -12430,7 +12469,7 @@
         <v>6314.5910000000003</v>
       </c>
     </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>370</v>
       </c>
@@ -12456,7 +12495,7 @@
         <v>1350.07</v>
       </c>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>371</v>
       </c>
@@ -12482,7 +12521,7 @@
         <v>5878.6385096153799</v>
       </c>
     </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>372</v>
       </c>
@@ -12508,7 +12547,7 @@
         <v>1353.0863636363599</v>
       </c>
     </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>373</v>
       </c>
@@ -12534,7 +12573,7 @@
         <v>1894.549</v>
       </c>
     </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>374</v>
       </c>
@@ -12560,7 +12599,7 @@
         <v>1240.98</v>
       </c>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>375</v>
       </c>
@@ -12586,7 +12625,7 @@
         <v>13142.817058823501</v>
       </c>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>376</v>
       </c>
@@ -12612,7 +12651,7 @@
         <v>17467.490183479302</v>
       </c>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>377</v>
       </c>
@@ -12638,7 +12677,7 @@
         <v>1196.3900000000001</v>
       </c>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>378</v>
       </c>
@@ -12664,7 +12703,7 @@
         <v>9502.7077142857106</v>
       </c>
     </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>379</v>
       </c>
@@ -12690,7 +12729,7 @@
         <v>4412.6387919463104</v>
       </c>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>380</v>
       </c>
@@ -12716,7 +12755,7 @@
         <v>2579.7600000000002</v>
       </c>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>381</v>
       </c>
@@ -12742,7 +12781,7 @@
         <v>7799.3580976150897</v>
       </c>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>382</v>
       </c>
@@ -12768,7 +12807,7 @@
         <v>3701.3163636363602</v>
       </c>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>383</v>
       </c>
@@ -12794,7 +12833,7 @@
         <v>6878.31</v>
       </c>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>384</v>
       </c>
@@ -12820,7 +12859,7 @@
         <v>65128.778178350702</v>
       </c>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>385</v>
       </c>
@@ -12846,7 +12885,7 @@
         <v>43260.838507305198</v>
       </c>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>386</v>
       </c>
@@ -12872,7 +12911,7 @@
         <v>53781.42</v>
       </c>
     </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>387</v>
       </c>
@@ -12898,7 +12937,7 @@
         <v>7635.66</v>
       </c>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>388</v>
       </c>
@@ -12924,7 +12963,7 @@
         <v>25814.434285714298</v>
       </c>
     </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>389</v>
       </c>
@@ -12950,7 +12989,7 @@
         <v>8588.6</v>
       </c>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>390</v>
       </c>
@@ -12976,7 +13015,7 @@
         <v>72802.408187168898</v>
       </c>
     </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>391</v>
       </c>
@@ -13002,7 +13041,7 @@
         <v>5277.25</v>
       </c>
     </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>392</v>
       </c>
@@ -13028,7 +13067,7 @@
         <v>13862.0038541667</v>
       </c>
     </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>393</v>
       </c>
@@ -13054,7 +13093,7 @@
         <v>4510.4866666666703</v>
       </c>
     </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>394</v>
       </c>
@@ -13080,7 +13119,7 @@
         <v>4123.92</v>
       </c>
     </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>395</v>
       </c>
@@ -13106,7 +13145,7 @@
         <v>27225.713749999999</v>
       </c>
     </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>396</v>
       </c>
@@ -13132,7 +13171,7 @@
         <v>1257.3699999999999</v>
       </c>
     </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>397</v>
       </c>
@@ -13158,7 +13197,7 @@
         <v>2574.9499999999998</v>
       </c>
     </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>398</v>
       </c>
@@ -13184,7 +13223,7 @@
         <v>14942.853903359801</v>
       </c>
     </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>399</v>
       </c>
@@ -13210,7 +13249,7 @@
         <v>649.30999999999995</v>
       </c>
     </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>400</v>
       </c>
@@ -13236,7 +13275,7 @@
         <v>1869.22</v>
       </c>
     </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>401</v>
       </c>
@@ -13262,7 +13301,7 @@
         <v>65604.332563702599</v>
       </c>
     </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>402</v>
       </c>
@@ -13288,7 +13327,7 @@
         <v>4877.2299999999996</v>
       </c>
     </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>403</v>
       </c>
@@ -13314,7 +13353,7 @@
         <v>1042.19</v>
       </c>
     </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>404</v>
       </c>
@@ -13340,7 +13379,7 @@
         <v>4766.5600000000004</v>
       </c>
     </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>405</v>
       </c>
@@ -13366,7 +13405,7 @@
         <v>652.55999999999995</v>
       </c>
     </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>406</v>
       </c>
@@ -13392,7 +13431,7 @@
         <v>1151.0533333333301</v>
       </c>
     </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>407</v>
       </c>
@@ -13418,7 +13457,7 @@
         <v>19130.560000000001</v>
       </c>
     </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>408</v>
       </c>
@@ -13444,7 +13483,7 @@
         <v>565.45749999999998</v>
       </c>
     </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>409</v>
       </c>
@@ -13470,7 +13509,7 @@
         <v>14108.8438095238</v>
       </c>
     </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>410</v>
       </c>
@@ -13496,7 +13535,7 @@
         <v>647.92999999999995</v>
       </c>
     </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>411</v>
       </c>
@@ -13522,7 +13561,7 @@
         <v>343.79</v>
       </c>
     </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>412</v>
       </c>
@@ -13548,7 +13587,7 @@
         <v>33726.426440677998</v>
       </c>
     </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>413</v>
       </c>
@@ -13574,7 +13613,7 @@
         <v>8366.4449999999997</v>
       </c>
     </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>414</v>
       </c>
@@ -13600,7 +13639,7 @@
         <v>910.25</v>
       </c>
     </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>415</v>
       </c>
@@ -13626,7 +13665,7 @@
         <v>14652.205</v>
       </c>
     </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>416</v>
       </c>
@@ -13652,7 +13691,7 @@
         <v>104094.23</v>
       </c>
     </row>
-    <row r="411" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>417</v>
       </c>
@@ -13678,7 +13717,7 @@
         <v>4820.87</v>
       </c>
     </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>418</v>
       </c>
@@ -13704,7 +13743,7 @@
         <v>1670.57</v>
       </c>
     </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>419</v>
       </c>
@@ -13730,7 +13769,7 @@
         <v>1228.7012500000001</v>
       </c>
     </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>420</v>
       </c>
@@ -13756,7 +13795,7 @@
         <v>4604.1049999999996</v>
       </c>
     </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>421</v>
       </c>
@@ -13782,7 +13821,7 @@
         <v>826.57</v>
       </c>
     </row>
-    <row r="416" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>422</v>
       </c>
@@ -13808,7 +13847,7 @@
         <v>6282.4324999999999</v>
       </c>
     </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>423</v>
       </c>
@@ -13834,7 +13873,7 @@
         <v>4028.77997671711</v>
       </c>
     </row>
-    <row r="418" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>424</v>
       </c>
@@ -13860,7 +13899,7 @@
         <v>1070.95</v>
       </c>
     </row>
-    <row r="419" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>425</v>
       </c>
@@ -13886,7 +13925,7 @@
         <v>57896.810263504602</v>
       </c>
     </row>
-    <row r="420" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>426</v>
       </c>
@@ -13912,7 +13951,7 @@
         <v>3802.1983333333301</v>
       </c>
     </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>427</v>
       </c>
@@ -13938,7 +13977,7 @@
         <v>27697.329402756499</v>
       </c>
     </row>
-    <row r="422" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>428</v>
       </c>
@@ -13964,7 +14003,7 @@
         <v>39532.336788321198</v>
       </c>
     </row>
-    <row r="423" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>429</v>
       </c>
@@ -13990,7 +14029,7 @@
         <v>3213.125</v>
       </c>
     </row>
-    <row r="424" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>430</v>
       </c>
@@ -14016,7 +14055,7 @@
         <v>25924.5074311877</v>
       </c>
     </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>431</v>
       </c>
@@ -14042,7 +14081,7 @@
         <v>640.13499999999999</v>
       </c>
     </row>
-    <row r="426" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>432</v>
       </c>
@@ -14068,7 +14107,7 @@
         <v>1782.77</v>
       </c>
     </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>433</v>
       </c>
@@ -14094,7 +14133,7 @@
         <v>1559.7357142857099</v>
       </c>
     </row>
-    <row r="428" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>434</v>
       </c>
@@ -14120,7 +14159,7 @@
         <v>30978.16</v>
       </c>
     </row>
-    <row r="429" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>435</v>
       </c>
@@ -14146,7 +14185,7 @@
         <v>1172.3900000000001</v>
       </c>
     </row>
-    <row r="430" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>436</v>
       </c>
@@ -14172,7 +14211,7 @@
         <v>519.80999999999995</v>
       </c>
     </row>
-    <row r="431" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>437</v>
       </c>
@@ -14198,7 +14237,7 @@
         <v>891.91499999999996</v>
       </c>
     </row>
-    <row r="432" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>438</v>
       </c>
@@ -14224,7 +14263,7 @@
         <v>674.52</v>
       </c>
     </row>
-    <row r="433" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>439</v>
       </c>
@@ -14250,7 +14289,7 @@
         <v>1551.62</v>
       </c>
     </row>
-    <row r="434" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>440</v>
       </c>
@@ -14276,33 +14315,36 @@
         <v>10685.93</v>
       </c>
     </row>
-    <row r="435" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A435" t="s">
+    <row r="435" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A435" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="B435">
+      <c r="B435" s="1">
         <v>2005</v>
       </c>
-      <c r="C435">
+      <c r="C435" s="1">
         <v>4742.2083333333303</v>
       </c>
-      <c r="D435">
+      <c r="D435" s="1">
         <v>1</v>
       </c>
-      <c r="E435">
+      <c r="E435" s="1">
         <v>1</v>
       </c>
-      <c r="F435">
+      <c r="F435" s="1">
         <v>139.09041666666701</v>
       </c>
-      <c r="G435">
+      <c r="G435" s="1">
         <v>836740.59499999997</v>
       </c>
-      <c r="H435">
+      <c r="H435" s="1">
         <v>100408.87</v>
       </c>
-    </row>
-    <row r="436" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I435" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="436" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>442</v>
       </c>
@@ -14328,7 +14370,7 @@
         <v>5114.03</v>
       </c>
     </row>
-    <row r="437" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>443</v>
       </c>
@@ -14354,7 +14396,7 @@
         <v>681.02</v>
       </c>
     </row>
-    <row r="438" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>444</v>
       </c>
@@ -14380,7 +14422,7 @@
         <v>2327.1999999999998</v>
       </c>
     </row>
-    <row r="439" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>445</v>
       </c>
@@ -14406,7 +14448,7 @@
         <v>7743.1</v>
       </c>
     </row>
-    <row r="440" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>446</v>
       </c>
@@ -14432,7 +14474,7 @@
         <v>22132.880000000001</v>
       </c>
     </row>
-    <row r="441" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>447</v>
       </c>
@@ -14458,7 +14500,7 @@
         <v>39145.593022571098</v>
       </c>
     </row>
-    <row r="442" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>448</v>
       </c>
@@ -14484,7 +14526,7 @@
         <v>11696.9524561404</v>
       </c>
     </row>
-    <row r="443" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>449</v>
       </c>
@@ -14510,7 +14552,7 @@
         <v>58151.282646638101</v>
       </c>
     </row>
-    <row r="444" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>450</v>
       </c>
@@ -14536,7 +14578,7 @@
         <v>19845.236461538501</v>
       </c>
     </row>
-    <row r="445" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>451</v>
       </c>
@@ -14562,7 +14604,7 @@
         <v>186441.65</v>
       </c>
     </row>
-    <row r="446" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>452</v>
       </c>
@@ -14588,7 +14630,7 @@
         <v>5989.7</v>
       </c>
     </row>
-    <row r="447" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>453</v>
       </c>
@@ -14614,7 +14656,7 @@
         <v>98578.764999999999</v>
       </c>
     </row>
-    <row r="448" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>454</v>
       </c>
@@ -14640,7 +14682,7 @@
         <v>630.17124999999999</v>
       </c>
     </row>
-    <row r="449" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>455</v>
       </c>
@@ -14666,7 +14708,7 @@
         <v>892.79</v>
       </c>
     </row>
-    <row r="450" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>456</v>
       </c>
@@ -14692,7 +14734,7 @@
         <v>23343.586306306301</v>
       </c>
     </row>
-    <row r="451" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>457</v>
       </c>
@@ -14718,7 +14760,7 @@
         <v>45909.82</v>
       </c>
     </row>
-    <row r="452" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>458</v>
       </c>
@@ -14744,7 +14786,7 @@
         <v>5750.92</v>
       </c>
     </row>
-    <row r="453" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>459</v>
       </c>
@@ -14770,7 +14812,7 @@
         <v>122884.16</v>
       </c>
     </row>
-    <row r="454" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>460</v>
       </c>
@@ -14796,7 +14838,7 @@
         <v>37716.197999999997</v>
       </c>
     </row>
-    <row r="455" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>461</v>
       </c>
@@ -14822,7 +14864,7 @@
         <v>10646.64</v>
       </c>
     </row>
-    <row r="456" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>462</v>
       </c>
@@ -14848,7 +14890,7 @@
         <v>578.45000000000005</v>
       </c>
     </row>
-    <row r="457" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>463</v>
       </c>
@@ -14874,7 +14916,7 @@
         <v>683.27</v>
       </c>
     </row>
-    <row r="458" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>464</v>
       </c>
@@ -14900,7 +14942,7 @@
         <v>28860.860700636898</v>
       </c>
     </row>
-    <row r="459" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>465</v>
       </c>
@@ -14926,7 +14968,7 @@
         <v>1601.56</v>
       </c>
     </row>
-    <row r="460" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>466</v>
       </c>
@@ -14952,7 +14994,7 @@
         <v>62303.663333333301</v>
       </c>
     </row>
-    <row r="461" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>467</v>
       </c>
@@ -14978,7 +15020,7 @@
         <v>14844.3648658649</v>
       </c>
     </row>
-    <row r="462" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>468</v>
       </c>
@@ -15004,7 +15046,7 @@
         <v>3839.8631666666702</v>
       </c>
     </row>
-    <row r="463" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>469</v>
       </c>
@@ -15030,7 +15072,7 @@
         <v>16910.310000000001</v>
       </c>
     </row>
-    <row r="464" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>470</v>
       </c>
@@ -15056,7 +15098,7 @@
         <v>45568.915000000001</v>
       </c>
     </row>
-    <row r="465" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>471</v>
       </c>
@@ -15082,7 +15124,7 @@
         <v>78914.3</v>
       </c>
     </row>
-    <row r="466" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>472</v>
       </c>
@@ -15108,7 +15150,7 @@
         <v>5098.6899999999996</v>
       </c>
     </row>
-    <row r="467" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>473</v>
       </c>
@@ -15134,7 +15176,7 @@
         <v>14862.285263157901</v>
       </c>
     </row>
-    <row r="468" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>474</v>
       </c>
@@ -15160,7 +15202,7 @@
         <v>3900.96</v>
       </c>
     </row>
-    <row r="469" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>475</v>
       </c>
@@ -15186,7 +15228,7 @@
         <v>4201.6725757575796</v>
       </c>
     </row>
-    <row r="470" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>476</v>
       </c>
@@ -15212,7 +15254,7 @@
         <v>15660.8155434783</v>
       </c>
     </row>
-    <row r="471" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>477</v>
       </c>
@@ -15238,7 +15280,7 @@
         <v>4282.6899999999996</v>
       </c>
     </row>
-    <row r="472" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>478</v>
       </c>
@@ -15264,7 +15306,7 @@
         <v>63535.783118556697</v>
       </c>
     </row>
-    <row r="473" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>479</v>
       </c>
@@ -15290,7 +15332,7 @@
         <v>528.98</v>
       </c>
     </row>
-    <row r="474" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>480</v>
       </c>
@@ -15316,7 +15358,7 @@
         <v>2361.13</v>
       </c>
     </row>
-    <row r="475" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>481</v>
       </c>
@@ -15342,7 +15384,7 @@
         <v>26917.54</v>
       </c>
     </row>
-    <row r="476" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>482</v>
       </c>
@@ -15368,7 +15410,7 @@
         <v>42837.906666666699</v>
       </c>
     </row>
-    <row r="477" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>483</v>
       </c>
@@ -15394,7 +15436,7 @@
         <v>69585.930476190493</v>
       </c>
     </row>
-    <row r="478" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
         <v>484</v>
       </c>
@@ -15420,7 +15462,7 @@
         <v>4723.8095714285701</v>
       </c>
     </row>
-    <row r="479" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>485</v>
       </c>
@@ -15446,7 +15488,7 @@
         <v>14851.46975</v>
       </c>
     </row>
-    <row r="480" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>486</v>
       </c>
@@ -15472,7 +15514,7 @@
         <v>4027.3987499999998</v>
       </c>
     </row>
-    <row r="481" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>487</v>
       </c>
@@ -15498,7 +15540,7 @@
         <v>16425.7502040816</v>
       </c>
     </row>
-    <row r="482" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>488</v>
       </c>
@@ -15524,7 +15566,7 @@
         <v>2129.7800000000002</v>
       </c>
     </row>
-    <row r="483" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>489</v>
       </c>
@@ -15550,7 +15592,7 @@
         <v>18108.4242857143</v>
       </c>
     </row>
-    <row r="484" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>490</v>
       </c>
@@ -15576,7 +15618,7 @@
         <v>27967.6851322314</v>
       </c>
     </row>
-    <row r="485" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>491</v>
       </c>
@@ -15602,7 +15644,7 @@
         <v>1070.2321428571399</v>
       </c>
     </row>
-    <row r="486" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>492</v>
       </c>
@@ -15628,7 +15670,7 @@
         <v>1307.45</v>
       </c>
     </row>
-    <row r="487" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>493</v>
       </c>
@@ -15654,7 +15696,7 @@
         <v>534.83000000000004</v>
       </c>
     </row>
-    <row r="488" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>494</v>
       </c>
@@ -15680,7 +15722,7 @@
         <v>1466.06</v>
       </c>
     </row>
-    <row r="489" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
         <v>495</v>
       </c>
@@ -15706,7 +15748,7 @@
         <v>64126.964545454503</v>
       </c>
     </row>
-    <row r="490" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>496</v>
       </c>
@@ -15732,7 +15774,7 @@
         <v>7853.1942424242397</v>
       </c>
     </row>
-    <row r="491" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>497</v>
       </c>
@@ -15758,7 +15800,7 @@
         <v>4521.37</v>
       </c>
     </row>
-    <row r="492" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>498</v>
       </c>
@@ -15784,7 +15826,7 @@
         <v>38816.5</v>
       </c>
     </row>
-    <row r="493" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>499</v>
       </c>
@@ -15810,7 +15852,7 @@
         <v>59943.776666666701</v>
       </c>
     </row>
-    <row r="494" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>500</v>
       </c>
@@ -15836,7 +15878,7 @@
         <v>4241.3500000000004</v>
       </c>
     </row>
-    <row r="495" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>501</v>
       </c>
@@ -15862,7 +15904,7 @@
         <v>2115.12</v>
       </c>
     </row>
-    <row r="496" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>502</v>
       </c>
@@ -15888,7 +15930,7 @@
         <v>4581.3625000000002</v>
       </c>
     </row>
-    <row r="497" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>503</v>
       </c>
@@ -15914,7 +15956,7 @@
         <v>55537.83</v>
       </c>
     </row>
-    <row r="498" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>504</v>
       </c>
@@ -15940,7 +15982,7 @@
         <v>45739.1938235294</v>
       </c>
     </row>
-    <row r="499" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>505</v>
       </c>
@@ -15966,7 +16008,7 @@
         <v>23861.488869565201</v>
       </c>
     </row>
-    <row r="500" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>506</v>
       </c>
@@ -15992,7 +16034,7 @@
         <v>7492.4477777777802</v>
       </c>
     </row>
-    <row r="501" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>507</v>
       </c>
@@ -16018,7 +16060,7 @@
         <v>3470.75</v>
       </c>
     </row>
-    <row r="502" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
         <v>508</v>
       </c>
@@ -16044,7 +16086,7 @@
         <v>2982.86</v>
       </c>
     </row>
-    <row r="503" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
         <v>509</v>
       </c>
@@ -16070,7 +16112,7 @@
         <v>5311.8416666666699</v>
       </c>
     </row>
-    <row r="504" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
         <v>510</v>
       </c>
@@ -16096,7 +16138,7 @@
         <v>13334.594999999999</v>
       </c>
     </row>
-    <row r="505" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
         <v>511</v>
       </c>
@@ -16122,7 +16164,7 @@
         <v>9159.1080788009804</v>
       </c>
     </row>
-    <row r="506" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
         <v>512</v>
       </c>
@@ -16148,7 +16190,7 @@
         <v>6294.29</v>
       </c>
     </row>
-    <row r="507" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
         <v>513</v>
       </c>
@@ -16174,7 +16216,7 @@
         <v>56155.487142857099</v>
       </c>
     </row>
-    <row r="508" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
         <v>514</v>
       </c>
@@ -16200,7 +16242,7 @@
         <v>5129.96</v>
       </c>
     </row>
-    <row r="509" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
         <v>515</v>
       </c>
@@ -16226,7 +16268,7 @@
         <v>7932.2168750000001</v>
       </c>
     </row>
-    <row r="510" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
         <v>516</v>
       </c>
@@ -16252,7 +16294,7 @@
         <v>25277.24</v>
       </c>
     </row>
-    <row r="511" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
         <v>517</v>
       </c>
@@ -16278,7 +16320,7 @@
         <v>17977.75</v>
       </c>
     </row>
-    <row r="512" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
         <v>518</v>
       </c>
@@ -16304,7 +16346,7 @@
         <v>297.53666666666697</v>
       </c>
     </row>
-    <row r="513" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
         <v>519</v>
       </c>
@@ -16330,7 +16372,7 @@
         <v>499.47</v>
       </c>
     </row>
-    <row r="514" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
         <v>520</v>
       </c>
@@ -16356,7 +16398,7 @@
         <v>4820.7275</v>
       </c>
     </row>
-    <row r="515" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
         <v>521</v>
       </c>
@@ -16382,7 +16424,7 @@
         <v>17220.547657657698</v>
       </c>
     </row>
-    <row r="516" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
         <v>522</v>
       </c>
@@ -16408,7 +16450,7 @@
         <v>2491.76652173913</v>
       </c>
     </row>
-    <row r="517" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
         <v>523</v>
       </c>
@@ -16434,7 +16476,7 @@
         <v>7818.0657142857099</v>
       </c>
     </row>
-    <row r="518" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
         <v>524</v>
       </c>
@@ -16460,7 +16502,7 @@
         <v>916.46</v>
       </c>
     </row>
-    <row r="519" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
         <v>525</v>
       </c>
@@ -16486,7 +16528,7 @@
         <v>2830.8988888888898</v>
       </c>
     </row>
-    <row r="520" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
         <v>526</v>
       </c>
@@ -16512,7 +16554,7 @@
         <v>55959.739374999997</v>
       </c>
     </row>
-    <row r="521" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
         <v>527</v>
       </c>
@@ -16538,7 +16580,7 @@
         <v>3886.1750000000002</v>
       </c>
     </row>
-    <row r="522" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
         <v>528</v>
       </c>
@@ -16564,7 +16606,7 @@
         <v>3965.3568</v>
       </c>
     </row>
-    <row r="523" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
         <v>529</v>
       </c>
@@ -16590,7 +16632,7 @@
         <v>2779.5</v>
       </c>
     </row>
-    <row r="524" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
         <v>530</v>
       </c>
@@ -16616,7 +16658,7 @@
         <v>4641.3331516936696</v>
       </c>
     </row>
-    <row r="525" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
         <v>531</v>
       </c>
@@ -16642,7 +16684,7 @@
         <v>25580.168890591802</v>
       </c>
     </row>
-    <row r="526" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
         <v>532</v>
       </c>
@@ -16668,7 +16710,7 @@
         <v>5443.3579965753397</v>
       </c>
     </row>
-    <row r="527" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
         <v>533</v>
       </c>
@@ -16694,7 +16736,7 @@
         <v>6324.28548387097</v>
       </c>
     </row>
-    <row r="528" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
         <v>534</v>
       </c>
@@ -16720,7 +16762,7 @@
         <v>6750.33</v>
       </c>
     </row>
-    <row r="529" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
         <v>535</v>
       </c>
@@ -16746,7 +16788,7 @@
         <v>3438</v>
       </c>
     </row>
-    <row r="530" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
         <v>536</v>
       </c>
@@ -16772,7 +16814,7 @@
         <v>4180.2960642570297</v>
       </c>
     </row>
-    <row r="531" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
         <v>537</v>
       </c>
@@ -16798,7 +16840,7 @@
         <v>515.09666666666703</v>
       </c>
     </row>
-    <row r="532" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
         <v>538</v>
       </c>
@@ -16824,7 +16866,7 @@
         <v>69490.8</v>
       </c>
     </row>
-    <row r="533" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
         <v>539</v>
       </c>
@@ -16850,7 +16892,7 @@
         <v>3506.67</v>
       </c>
     </row>
-    <row r="534" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
         <v>540</v>
       </c>
@@ -16876,7 +16918,7 @@
         <v>7973.3760606060596</v>
       </c>
     </row>
-    <row r="535" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
         <v>541</v>
       </c>
@@ -16902,7 +16944,7 @@
         <v>621.33000000000004</v>
       </c>
     </row>
-    <row r="536" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
         <v>542</v>
       </c>
@@ -16928,7 +16970,7 @@
         <v>38672.234967783501</v>
       </c>
     </row>
-    <row r="537" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
         <v>543</v>
       </c>
@@ -16954,7 +16996,7 @@
         <v>35967.43</v>
       </c>
     </row>
-    <row r="538" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
         <v>544</v>
       </c>
@@ -16980,7 +17022,7 @@
         <v>634.35749999999996</v>
       </c>
     </row>
-    <row r="539" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
         <v>545</v>
       </c>
@@ -17006,7 +17048,7 @@
         <v>2818.16</v>
       </c>
     </row>
-    <row r="540" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
         <v>546</v>
       </c>
@@ -17032,7 +17074,7 @@
         <v>1505.36</v>
       </c>
     </row>
-    <row r="541" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
         <v>547</v>
       </c>
@@ -17058,7 +17100,7 @@
         <v>112160.412220984</v>
       </c>
     </row>
-    <row r="542" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
         <v>548</v>
       </c>
@@ -17084,7 +17126,7 @@
         <v>1110.1328571428601</v>
       </c>
     </row>
-    <row r="543" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
         <v>549</v>
       </c>
@@ -17110,7 +17152,7 @@
         <v>61753.876865612598</v>
       </c>
     </row>
-    <row r="544" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
         <v>550</v>
       </c>
@@ -17136,7 +17178,7 @@
         <v>7707.79</v>
       </c>
     </row>
-    <row r="545" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
         <v>551</v>
       </c>
@@ -17162,7 +17204,7 @@
         <v>11218.068666666701</v>
       </c>
     </row>
-    <row r="546" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
         <v>552</v>
       </c>
@@ -17188,7 +17230,7 @@
         <v>235.91120689655199</v>
       </c>
     </row>
-    <row r="547" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
         <v>553</v>
       </c>
@@ -17214,7 +17256,7 @@
         <v>7778.79</v>
       </c>
     </row>
-    <row r="548" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
         <v>554</v>
       </c>
@@ -17240,7 +17282,7 @@
         <v>4359.88</v>
       </c>
     </row>
-    <row r="549" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
         <v>555</v>
       </c>
@@ -17266,7 +17308,7 @@
         <v>9499.33</v>
       </c>
     </row>
-    <row r="550" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
         <v>556</v>
       </c>
@@ -17292,7 +17334,7 @@
         <v>4051.3049999999998</v>
       </c>
     </row>
-    <row r="551" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
         <v>557</v>
       </c>
@@ -17318,7 +17360,7 @@
         <v>5485.7660714285703</v>
       </c>
     </row>
-    <row r="552" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
         <v>558</v>
       </c>
@@ -17344,7 +17386,7 @@
         <v>36568.573559322002</v>
       </c>
     </row>
-    <row r="553" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
         <v>559</v>
       </c>
@@ -17370,7 +17412,7 @@
         <v>728.75</v>
       </c>
     </row>
-    <row r="554" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
         <v>560</v>
       </c>
@@ -17396,7 +17438,7 @@
         <v>27058.177652173901</v>
       </c>
     </row>
-    <row r="555" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
         <v>561</v>
       </c>
@@ -17422,7 +17464,7 @@
         <v>14091.504316114</v>
       </c>
     </row>
-    <row r="556" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
         <v>562</v>
       </c>
@@ -17448,7 +17490,7 @@
         <v>4908.66</v>
       </c>
     </row>
-    <row r="557" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
         <v>563</v>
       </c>
@@ -17474,7 +17516,7 @@
         <v>44825.990588235298</v>
       </c>
     </row>
-    <row r="558" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A558" t="s">
         <v>564</v>
       </c>
@@ -17500,7 +17542,7 @@
         <v>48788.555</v>
       </c>
     </row>
-    <row r="559" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A559" t="s">
         <v>565</v>
       </c>
@@ -17526,7 +17568,7 @@
         <v>6536.73</v>
       </c>
     </row>
-    <row r="560" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A560" t="s">
         <v>566</v>
       </c>
@@ -17552,7 +17594,7 @@
         <v>4659.2986666666702</v>
       </c>
     </row>
-    <row r="561" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A561" t="s">
         <v>567</v>
       </c>
@@ -17578,7 +17620,7 @@
         <v>5328.2</v>
       </c>
     </row>
-    <row r="562" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A562" t="s">
         <v>568</v>
       </c>
@@ -17604,7 +17646,7 @@
         <v>2234.2887500000002</v>
       </c>
     </row>
-    <row r="563" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A563" t="s">
         <v>569</v>
       </c>
@@ -17630,7 +17672,7 @@
         <v>2095.37</v>
       </c>
     </row>
-    <row r="564" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A564" t="s">
         <v>570</v>
       </c>
@@ -17656,7 +17698,7 @@
         <v>185435.79500000001</v>
       </c>
     </row>
-    <row r="565" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A565" t="s">
         <v>571</v>
       </c>
@@ -17682,7 +17724,7 @@
         <v>3467.0540000000001</v>
       </c>
     </row>
-    <row r="566" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A566" t="s">
         <v>572</v>
       </c>
@@ -17708,7 +17750,7 @@
         <v>4415.5600000000004</v>
       </c>
     </row>
-    <row r="567" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A567" t="s">
         <v>573</v>
       </c>
@@ -17734,7 +17776,7 @@
         <v>4342.5578571428596</v>
       </c>
     </row>
-    <row r="568" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A568" t="s">
         <v>574</v>
       </c>
@@ -17760,7 +17802,7 @@
         <v>32738.913135825002</v>
       </c>
     </row>
-    <row r="569" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A569" t="s">
         <v>575</v>
       </c>
@@ -17786,7 +17828,7 @@
         <v>5611.2664999999997</v>
       </c>
     </row>
-    <row r="570" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A570" t="s">
         <v>576</v>
       </c>
@@ -17812,7 +17854,7 @@
         <v>23043.3530769231</v>
       </c>
     </row>
-    <row r="571" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A571" t="s">
         <v>577</v>
       </c>
@@ -17838,7 +17880,7 @@
         <v>5353.51</v>
       </c>
     </row>
-    <row r="572" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A572" t="s">
         <v>578</v>
       </c>
@@ -17864,7 +17906,7 @@
         <v>28054.61</v>
       </c>
     </row>
-    <row r="573" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A573" t="s">
         <v>579</v>
       </c>
@@ -17890,7 +17932,7 @@
         <v>7716.04</v>
       </c>
     </row>
-    <row r="574" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A574" t="s">
         <v>580</v>
       </c>
@@ -17916,7 +17958,7 @@
         <v>8399.25</v>
       </c>
     </row>
-    <row r="575" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A575" t="s">
         <v>581</v>
       </c>
@@ -17942,7 +17984,7 @@
         <v>2286.62</v>
       </c>
     </row>
-    <row r="576" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A576" t="s">
         <v>582</v>
       </c>
@@ -17968,7 +18010,7 @@
         <v>10546.23</v>
       </c>
     </row>
-    <row r="577" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A577" t="s">
         <v>583</v>
       </c>
@@ -17994,7 +18036,7 @@
         <v>32027.42</v>
       </c>
     </row>
-    <row r="578" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A578" t="s">
         <v>584</v>
       </c>
@@ -18020,7 +18062,7 @@
         <v>696.03333333333296</v>
       </c>
     </row>
-    <row r="579" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A579" t="s">
         <v>585</v>
       </c>
@@ -18046,7 +18088,7 @@
         <v>7772.97</v>
       </c>
     </row>
-    <row r="580" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A580" t="s">
         <v>586</v>
       </c>
@@ -18072,7 +18114,7 @@
         <v>651.53666666666697</v>
       </c>
     </row>
-    <row r="581" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A581" t="s">
         <v>587</v>
       </c>
@@ -18098,7 +18140,7 @@
         <v>8407.3083333333307</v>
       </c>
     </row>
-    <row r="582" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A582" t="s">
         <v>588</v>
       </c>
@@ -18124,7 +18166,7 @@
         <v>45239.719190283402</v>
       </c>
     </row>
-    <row r="583" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A583" t="s">
         <v>589</v>
       </c>
@@ -18150,7 +18192,7 @@
         <v>9621.1464583333309</v>
       </c>
     </row>
-    <row r="584" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A584" t="s">
         <v>590</v>
       </c>
@@ -18176,7 +18218,7 @@
         <v>15365.05</v>
       </c>
     </row>
-    <row r="585" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A585" t="s">
         <v>591</v>
       </c>
@@ -18202,7 +18244,7 @@
         <v>14943.9264864865</v>
       </c>
     </row>
-    <row r="586" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A586" t="s">
         <v>592</v>
       </c>
@@ -18228,7 +18270,7 @@
         <v>3425.49</v>
       </c>
     </row>
-    <row r="587" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A587" t="s">
         <v>593</v>
       </c>
@@ -18254,7 +18296,7 @@
         <v>39196.304213836498</v>
       </c>
     </row>
-    <row r="588" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A588" t="s">
         <v>594</v>
       </c>
@@ -18280,7 +18322,7 @@
         <v>3297.8674999999998</v>
       </c>
     </row>
-    <row r="589" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A589" t="s">
         <v>595</v>
       </c>
@@ -18306,7 +18348,7 @@
         <v>2755.06</v>
       </c>
     </row>
-    <row r="590" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A590" t="s">
         <v>596</v>
       </c>
@@ -18332,7 +18374,7 @@
         <v>4682.5179452054799</v>
       </c>
     </row>
-    <row r="591" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A591" t="s">
         <v>597</v>
       </c>
@@ -18358,7 +18400,7 @@
         <v>2010.89</v>
       </c>
     </row>
-    <row r="592" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A592" t="s">
         <v>598</v>
       </c>
@@ -18384,7 +18426,7 @@
         <v>2915.8145454545502</v>
       </c>
     </row>
-    <row r="593" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A593" t="s">
         <v>599</v>
       </c>
@@ -18410,7 +18452,7 @@
         <v>12804.2090909091</v>
       </c>
     </row>
-    <row r="594" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A594" t="s">
         <v>600</v>
       </c>
@@ -18436,7 +18478,7 @@
         <v>11433.9802054795</v>
       </c>
     </row>
-    <row r="595" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A595" t="s">
         <v>601</v>
       </c>
@@ -18462,7 +18504,7 @@
         <v>2246.8637746478898</v>
       </c>
     </row>
-    <row r="596" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A596" t="s">
         <v>602</v>
       </c>
@@ -18488,7 +18530,7 @@
         <v>3005.61</v>
       </c>
     </row>
-    <row r="597" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A597" t="s">
         <v>603</v>
       </c>
@@ -18514,7 +18556,7 @@
         <v>43002.6221303657</v>
       </c>
     </row>
-    <row r="598" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A598" t="s">
         <v>604</v>
       </c>
@@ -18540,7 +18582,7 @@
         <v>20714.91</v>
       </c>
     </row>
-    <row r="599" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A599" t="s">
         <v>605</v>
       </c>
@@ -18566,7 +18608,7 @@
         <v>1152.23</v>
       </c>
     </row>
-    <row r="600" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A600" t="s">
         <v>606</v>
       </c>
@@ -18592,7 +18634,7 @@
         <v>4935.0033333333304</v>
       </c>
     </row>
-    <row r="601" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A601" t="s">
         <v>607</v>
       </c>
@@ -18618,7 +18660,7 @@
         <v>3259.8366666666702</v>
       </c>
     </row>
-    <row r="602" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A602" t="s">
         <v>608</v>
       </c>
@@ -18644,7 +18686,7 @@
         <v>11755.27</v>
       </c>
     </row>
-    <row r="603" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A603" t="s">
         <v>609</v>
       </c>
@@ -18670,7 +18712,7 @@
         <v>2418.3000000000002</v>
       </c>
     </row>
-    <row r="604" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A604" t="s">
         <v>610</v>
       </c>
@@ -18696,7 +18738,7 @@
         <v>531.61</v>
       </c>
     </row>
-    <row r="605" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A605" t="s">
         <v>611</v>
       </c>
@@ -18722,7 +18764,7 @@
         <v>677.51250000000005</v>
       </c>
     </row>
-    <row r="606" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A606" t="s">
         <v>612</v>
       </c>
@@ -18748,7 +18790,7 @@
         <v>32978.380380228104</v>
       </c>
     </row>
-    <row r="607" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A607" t="s">
         <v>613</v>
       </c>
@@ -18774,7 +18816,7 @@
         <v>685.47</v>
       </c>
     </row>
-    <row r="608" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A608" t="s">
         <v>614</v>
       </c>
@@ -18800,7 +18842,7 @@
         <v>641.79999999999995</v>
       </c>
     </row>
-    <row r="609" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A609" t="s">
         <v>615</v>
       </c>
@@ -18826,7 +18868,7 @@
         <v>8289.3633333333291</v>
       </c>
     </row>
-    <row r="610" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A610" t="s">
         <v>616</v>
       </c>
@@ -18852,7 +18894,7 @@
         <v>26257.895777777801</v>
       </c>
     </row>
-    <row r="611" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A611" t="s">
         <v>617</v>
       </c>
@@ -18878,7 +18920,7 @@
         <v>5442.7077777777804</v>
       </c>
     </row>
-    <row r="612" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A612" t="s">
         <v>618</v>
       </c>
@@ -18904,7 +18946,7 @@
         <v>97605.88</v>
       </c>
     </row>
-    <row r="613" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A613" t="s">
         <v>619</v>
       </c>
@@ -18930,7 +18972,7 @@
         <v>4827.6342857142899</v>
       </c>
     </row>
-    <row r="614" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A614" t="s">
         <v>620</v>
       </c>
@@ -18956,7 +18998,7 @@
         <v>7247.73</v>
       </c>
     </row>
-    <row r="615" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A615" t="s">
         <v>621</v>
       </c>
@@ -18982,7 +19024,7 @@
         <v>2593.06</v>
       </c>
     </row>
-    <row r="616" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A616" t="s">
         <v>622</v>
       </c>
@@ -19008,7 +19050,7 @@
         <v>4498.3266666666696</v>
       </c>
     </row>
-    <row r="617" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A617" t="s">
         <v>623</v>
       </c>
@@ -19034,7 +19076,7 @@
         <v>4535.79</v>
       </c>
     </row>
-    <row r="618" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A618" t="s">
         <v>624</v>
       </c>
@@ -19060,7 +19102,7 @@
         <v>7354.74</v>
       </c>
     </row>
-    <row r="619" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A619" t="s">
         <v>625</v>
       </c>
@@ -19086,7 +19128,7 @@
         <v>5380.2707692307704</v>
       </c>
     </row>
-    <row r="620" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A620" t="s">
         <v>626</v>
       </c>
@@ -19112,7 +19154,7 @@
         <v>7343.57</v>
       </c>
     </row>
-    <row r="621" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A621" t="s">
         <v>627</v>
       </c>
@@ -19138,7 +19180,7 @@
         <v>11659.637627345801</v>
       </c>
     </row>
-    <row r="622" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A622" t="s">
         <v>628</v>
       </c>
@@ -19164,7 +19206,7 @@
         <v>543.47</v>
       </c>
     </row>
-    <row r="623" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A623" t="s">
         <v>629</v>
       </c>
@@ -19190,7 +19232,7 @@
         <v>22275.766506729098</v>
       </c>
     </row>
-    <row r="624" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A624" t="s">
         <v>630</v>
       </c>
@@ -19216,7 +19258,7 @@
         <v>20830.5438709677</v>
       </c>
     </row>
-    <row r="625" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A625" t="s">
         <v>631</v>
       </c>
@@ -19242,7 +19284,7 @@
         <v>3425.49</v>
       </c>
     </row>
-    <row r="626" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A626" t="s">
         <v>632</v>
       </c>
@@ -19268,7 +19310,7 @@
         <v>1310.8966666666699</v>
       </c>
     </row>
-    <row r="627" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A627" t="s">
         <v>633</v>
       </c>
@@ -19294,7 +19336,7 @@
         <v>7821.6</v>
       </c>
     </row>
-    <row r="628" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A628" t="s">
         <v>634</v>
       </c>
@@ -19320,7 +19362,7 @@
         <v>6598.46928571429</v>
       </c>
     </row>
-    <row r="629" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A629" t="s">
         <v>635</v>
       </c>
@@ -19346,7 +19388,7 @@
         <v>9359.0212499999998</v>
       </c>
     </row>
-    <row r="630" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A630" t="s">
         <v>636</v>
       </c>
@@ -19372,7 +19414,7 @@
         <v>765.93799999999999</v>
       </c>
     </row>
-    <row r="631" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A631" t="s">
         <v>637</v>
       </c>
@@ -19398,7 +19440,7 @@
         <v>30829.384999999998</v>
       </c>
     </row>
-    <row r="632" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A632" t="s">
         <v>638</v>
       </c>
@@ -19424,7 +19466,7 @@
         <v>5655.12</v>
       </c>
     </row>
-    <row r="633" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A633" t="s">
         <v>639</v>
       </c>
@@ -19450,7 +19492,7 @@
         <v>1952.0423333333299</v>
       </c>
     </row>
-    <row r="634" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A634" t="s">
         <v>640</v>
       </c>
@@ -19476,7 +19518,7 @@
         <v>1461.63</v>
       </c>
     </row>
-    <row r="635" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A635" t="s">
         <v>641</v>
       </c>
@@ -19502,7 +19544,7 @@
         <v>6407.8360000000002</v>
       </c>
     </row>
-    <row r="636" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A636" t="s">
         <v>642</v>
       </c>
@@ -19528,7 +19570,7 @@
         <v>1502.1</v>
       </c>
     </row>
-    <row r="637" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A637" t="s">
         <v>643</v>
       </c>
@@ -19554,7 +19596,7 @@
         <v>3231.05</v>
       </c>
     </row>
-    <row r="638" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A638" t="s">
         <v>644</v>
       </c>
@@ -19580,7 +19622,7 @@
         <v>3214.4216666666698</v>
       </c>
     </row>
-    <row r="639" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A639" t="s">
         <v>645</v>
       </c>
@@ -19606,7 +19648,7 @@
         <v>1541.3295652173899</v>
       </c>
     </row>
-    <row r="640" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A640" t="s">
         <v>646</v>
       </c>
@@ -19632,7 +19674,7 @@
         <v>10585.97</v>
       </c>
     </row>
-    <row r="641" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A641" t="s">
         <v>647</v>
       </c>
@@ -19658,7 +19700,7 @@
         <v>898.533538461538</v>
       </c>
     </row>
-    <row r="642" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A642" t="s">
         <v>648</v>
       </c>
@@ -19684,7 +19726,7 @@
         <v>667.91</v>
       </c>
     </row>
-    <row r="643" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A643" t="s">
         <v>649</v>
       </c>
@@ -19710,7 +19752,7 @@
         <v>662125.84</v>
       </c>
     </row>
-    <row r="644" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A644" t="s">
         <v>650</v>
       </c>
@@ -19736,7 +19778,7 @@
         <v>6904.7896491228103</v>
       </c>
     </row>
-    <row r="645" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A645" t="s">
         <v>651</v>
       </c>
@@ -19762,7 +19804,7 @@
         <v>24344.522422145299</v>
       </c>
     </row>
-    <row r="646" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A646" t="s">
         <v>652</v>
       </c>
@@ -19788,7 +19830,7 @@
         <v>25271.589058823502</v>
       </c>
     </row>
-    <row r="647" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A647" t="s">
         <v>653</v>
       </c>
@@ -19814,7 +19856,7 @@
         <v>2159.7350239234502</v>
       </c>
     </row>
-    <row r="648" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A648" t="s">
         <v>654</v>
       </c>
@@ -19840,33 +19882,36 @@
         <v>14332.85</v>
       </c>
     </row>
-    <row r="649" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A649" t="s">
+    <row r="649" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A649" s="1" t="s">
         <v>655</v>
       </c>
-      <c r="B649">
+      <c r="B649" s="1">
         <v>2016</v>
       </c>
-      <c r="C649">
+      <c r="C649" s="1">
         <v>10562.708333333299</v>
       </c>
-      <c r="D649">
+      <c r="D649" s="1">
         <v>36</v>
       </c>
-      <c r="E649">
+      <c r="E649" s="1">
         <v>4</v>
       </c>
-      <c r="F649">
+      <c r="F649" s="1">
         <v>13.0833333333333</v>
       </c>
-      <c r="G649">
+      <c r="G649" s="1">
         <v>1449577.7692708301</v>
       </c>
-      <c r="H649">
+      <c r="H649" s="1">
         <v>173949.33124999999</v>
       </c>
-    </row>
-    <row r="650" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I649" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="650" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A650" t="s">
         <v>656</v>
       </c>
@@ -19892,7 +19937,7 @@
         <v>71874.039999999994</v>
       </c>
     </row>
-    <row r="651" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A651" t="s">
         <v>657</v>
       </c>
@@ -19918,7 +19963,7 @@
         <v>663.62249999999995</v>
       </c>
     </row>
-    <row r="652" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A652" t="s">
         <v>658</v>
       </c>
@@ -19944,7 +19989,7 @@
         <v>2003.22080047436</v>
       </c>
     </row>
-    <row r="653" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A653" t="s">
         <v>659</v>
       </c>
@@ -19970,7 +20015,7 @@
         <v>629.84315789473703</v>
       </c>
     </row>
-    <row r="654" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A654" t="s">
         <v>660</v>
       </c>
@@ -19996,7 +20041,7 @@
         <v>537.62</v>
       </c>
     </row>
-    <row r="655" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A655" t="s">
         <v>661</v>
       </c>
@@ -20022,7 +20067,7 @@
         <v>48066.97</v>
       </c>
     </row>
-    <row r="656" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A656" t="s">
         <v>662</v>
       </c>
@@ -20048,7 +20093,7 @@
         <v>14568.336666666701</v>
       </c>
     </row>
-    <row r="657" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A657" t="s">
         <v>663</v>
       </c>
@@ -20074,7 +20119,7 @@
         <v>13403.35</v>
       </c>
     </row>
-    <row r="658" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A658" t="s">
         <v>664</v>
       </c>
@@ -20100,7 +20145,7 @@
         <v>64946.42</v>
       </c>
     </row>
-    <row r="659" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A659" t="s">
         <v>665</v>
       </c>
@@ -20126,7 +20171,7 @@
         <v>34994.683005530998</v>
       </c>
     </row>
-    <row r="660" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A660" t="s">
         <v>666</v>
       </c>
@@ -20152,7 +20197,7 @@
         <v>7889.15333333333</v>
       </c>
     </row>
-    <row r="661" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A661" t="s">
         <v>667</v>
       </c>
@@ -20178,7 +20223,7 @@
         <v>8557.91</v>
       </c>
     </row>
-    <row r="662" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A662" t="s">
         <v>668</v>
       </c>
@@ -20204,7 +20249,7 @@
         <v>559.88</v>
       </c>
     </row>
-    <row r="663" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A663" t="s">
         <v>669</v>
       </c>
@@ -20230,7 +20275,7 @@
         <v>801.76818181818203</v>
       </c>
     </row>
-    <row r="664" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A664" t="s">
         <v>670</v>
       </c>
@@ -20256,7 +20301,7 @@
         <v>6612.65</v>
       </c>
     </row>
-    <row r="665" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A665" t="s">
         <v>671</v>
       </c>
@@ -20282,7 +20327,7 @@
         <v>1725.13</v>
       </c>
     </row>
-    <row r="666" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A666" t="s">
         <v>672</v>
       </c>
@@ -20308,7 +20353,7 @@
         <v>9584.2029090909109</v>
       </c>
     </row>
-    <row r="667" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A667" t="s">
         <v>673</v>
       </c>
@@ -20334,7 +20379,7 @@
         <v>519.62</v>
       </c>
     </row>
-    <row r="668" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A668" t="s">
         <v>674</v>
       </c>
@@ -20360,7 +20405,7 @@
         <v>839.40583333333302</v>
       </c>
     </row>
-    <row r="669" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A669" t="s">
         <v>675</v>
       </c>
@@ -20386,7 +20431,7 @@
         <v>8244.1671428571408</v>
       </c>
     </row>
-    <row r="670" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A670" t="s">
         <v>676</v>
       </c>
@@ -20412,7 +20457,7 @@
         <v>5797.66</v>
       </c>
     </row>
-    <row r="671" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A671" t="s">
         <v>677</v>
       </c>
@@ -20438,7 +20483,7 @@
         <v>6860.21</v>
       </c>
     </row>
-    <row r="672" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A672" t="s">
         <v>678</v>
       </c>
@@ -20464,7 +20509,7 @@
         <v>5967.36</v>
       </c>
     </row>
-    <row r="673" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A673" t="s">
         <v>679</v>
       </c>
@@ -20490,7 +20535,7 @@
         <v>1917.08</v>
       </c>
     </row>
-    <row r="674" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A674" t="s">
         <v>680</v>
       </c>
@@ -20516,7 +20561,7 @@
         <v>18092.748562091499</v>
       </c>
     </row>
-    <row r="675" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A675" t="s">
         <v>681</v>
       </c>
@@ -20542,7 +20587,7 @@
         <v>44342.714</v>
       </c>
     </row>
-    <row r="676" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A676" t="s">
         <v>682</v>
       </c>
@@ -20568,7 +20613,7 @@
         <v>749.23500000000001</v>
       </c>
     </row>
-    <row r="677" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A677" t="s">
         <v>683</v>
       </c>
@@ -20594,7 +20639,7 @@
         <v>6605.1166666666704</v>
       </c>
     </row>
-    <row r="678" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A678" t="s">
         <v>684</v>
       </c>
@@ -20620,7 +20665,7 @@
         <v>12932.7</v>
       </c>
     </row>
-    <row r="679" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A679" t="s">
         <v>685</v>
       </c>
@@ -20646,7 +20691,7 @@
         <v>2715.7555294117601</v>
       </c>
     </row>
-    <row r="680" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A680" t="s">
         <v>686</v>
       </c>
@@ -20672,7 +20717,7 @@
         <v>6865.89</v>
       </c>
     </row>
-    <row r="681" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A681" t="s">
         <v>687</v>
       </c>
@@ -20698,7 +20743,7 @@
         <v>18028.355</v>
       </c>
     </row>
-    <row r="682" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A682" t="s">
         <v>688</v>
       </c>
@@ -20724,7 +20769,7 @@
         <v>1347.92333333333</v>
       </c>
     </row>
-    <row r="683" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A683" t="s">
         <v>689</v>
       </c>
@@ -20750,7 +20795,7 @@
         <v>3992.61</v>
       </c>
     </row>
-    <row r="684" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A684" t="s">
         <v>690</v>
       </c>
@@ -20776,7 +20821,7 @@
         <v>127953.47</v>
       </c>
     </row>
-    <row r="685" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A685" t="s">
         <v>691</v>
       </c>
@@ -20802,7 +20847,7 @@
         <v>3654.3</v>
       </c>
     </row>
-    <row r="686" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A686" t="s">
         <v>692</v>
       </c>
@@ -20828,7 +20873,7 @@
         <v>1383.82</v>
       </c>
     </row>
-    <row r="687" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A687" t="s">
         <v>693</v>
       </c>
@@ -20854,7 +20899,7 @@
         <v>10309.049999999999</v>
       </c>
     </row>
-    <row r="688" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A688" t="s">
         <v>694</v>
       </c>
@@ -20880,7 +20925,7 @@
         <v>3632.82666666667</v>
       </c>
     </row>
-    <row r="689" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A689" t="s">
         <v>695</v>
       </c>
@@ -20906,7 +20951,7 @@
         <v>5335.9350000000004</v>
       </c>
     </row>
-    <row r="690" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A690" t="s">
         <v>696</v>
       </c>
@@ -20932,7 +20977,7 @@
         <v>16661.57</v>
       </c>
     </row>
-    <row r="691" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A691" t="s">
         <v>697</v>
       </c>
@@ -20958,7 +21003,7 @@
         <v>254320.785</v>
       </c>
     </row>
-    <row r="692" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A692" t="s">
         <v>698</v>
       </c>
@@ -20984,7 +21029,7 @@
         <v>1817.62</v>
       </c>
     </row>
-    <row r="693" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A693" t="s">
         <v>699</v>
       </c>
@@ -21010,7 +21055,7 @@
         <v>11446.037068965499</v>
       </c>
     </row>
-    <row r="694" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A694" t="s">
         <v>700</v>
       </c>
@@ -21036,7 +21081,7 @@
         <v>1882.2760000000001</v>
       </c>
     </row>
-    <row r="695" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A695" t="s">
         <v>701</v>
       </c>
@@ -21062,7 +21107,7 @@
         <v>4636.1400000000003</v>
       </c>
     </row>
-    <row r="696" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A696" t="s">
         <v>702</v>
       </c>
@@ -21088,7 +21133,7 @@
         <v>10028.89</v>
       </c>
     </row>
-    <row r="697" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A697" t="s">
         <v>703</v>
       </c>
@@ -21114,7 +21159,7 @@
         <v>4288.63</v>
       </c>
     </row>
-    <row r="698" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A698" t="s">
         <v>704</v>
       </c>
@@ -21140,7 +21185,7 @@
         <v>5845.2325442834099</v>
       </c>
     </row>
-    <row r="699" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A699" t="s">
         <v>705</v>
       </c>
@@ -21166,7 +21211,7 @@
         <v>8830.0125000000007</v>
       </c>
     </row>
-    <row r="700" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A700" t="s">
         <v>706</v>
       </c>
@@ -21192,7 +21237,7 @@
         <v>4820.9068534482803</v>
       </c>
     </row>
-    <row r="701" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A701" t="s">
         <v>707</v>
       </c>
@@ -21218,7 +21263,7 @@
         <v>5132.8733333333303</v>
       </c>
     </row>
-    <row r="702" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A702" t="s">
         <v>708</v>
       </c>
@@ -21244,7 +21289,7 @@
         <v>4561.6558093797303</v>
       </c>
     </row>
-    <row r="703" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A703" t="s">
         <v>709</v>
       </c>
@@ -21270,7 +21315,7 @@
         <v>5316.65333333333</v>
       </c>
     </row>
-    <row r="704" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A704" t="s">
         <v>710</v>
       </c>
@@ -21296,7 +21341,7 @@
         <v>6432.27</v>
       </c>
     </row>
-    <row r="705" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A705" t="s">
         <v>711</v>
       </c>
@@ -21322,7 +21367,7 @@
         <v>13353.6848068284</v>
       </c>
     </row>
-    <row r="706" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A706" t="s">
         <v>712</v>
       </c>
@@ -21348,7 +21393,7 @@
         <v>671.06</v>
       </c>
     </row>
-    <row r="707" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A707" t="s">
         <v>713</v>
       </c>
@@ -21374,7 +21419,7 @@
         <v>695.73</v>
       </c>
     </row>
-    <row r="708" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A708" t="s">
         <v>714</v>
       </c>
@@ -21400,7 +21445,7 @@
         <v>4426.84</v>
       </c>
     </row>
-    <row r="709" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A709" t="s">
         <v>715</v>
       </c>
@@ -21426,7 +21471,7 @@
         <v>1093.98</v>
       </c>
     </row>
-    <row r="710" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A710" t="s">
         <v>716</v>
       </c>
@@ -21452,7 +21497,7 @@
         <v>803.09</v>
       </c>
     </row>
-    <row r="711" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A711" t="s">
         <v>717</v>
       </c>
@@ -21478,7 +21523,7 @@
         <v>3065.92</v>
       </c>
     </row>
-    <row r="712" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A712" t="s">
         <v>718</v>
       </c>
@@ -21504,7 +21549,7 @@
         <v>2886.96</v>
       </c>
     </row>
-    <row r="713" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A713" t="s">
         <v>719</v>
       </c>
@@ -21530,7 +21575,7 @@
         <v>57472.513838379899</v>
       </c>
     </row>
-    <row r="714" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A714" t="s">
         <v>720</v>
       </c>
@@ -21556,7 +21601,7 @@
         <v>561.03</v>
       </c>
     </row>
-    <row r="715" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A715" t="s">
         <v>721</v>
       </c>
@@ -21582,7 +21627,7 @@
         <v>66850.27</v>
       </c>
     </row>
-    <row r="716" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A716" t="s">
         <v>722</v>
       </c>
@@ -21608,7 +21653,7 @@
         <v>59094.25</v>
       </c>
     </row>
-    <row r="717" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A717" t="s">
         <v>723</v>
       </c>
@@ -21634,7 +21679,7 @@
         <v>11017.0333333333</v>
       </c>
     </row>
-    <row r="718" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A718" t="s">
         <v>724</v>
       </c>
@@ -21660,7 +21705,7 @@
         <v>9124.0400000000009</v>
       </c>
     </row>
-    <row r="719" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A719" t="s">
         <v>725</v>
       </c>
@@ -21686,7 +21731,7 @@
         <v>60954.487567567601</v>
       </c>
     </row>
-    <row r="720" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A720" t="s">
         <v>726</v>
       </c>
@@ -21712,7 +21757,7 @@
         <v>106650.54</v>
       </c>
     </row>
-    <row r="721" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A721" t="s">
         <v>727</v>
       </c>
@@ -21738,7 +21783,7 @@
         <v>413.88714285714298</v>
       </c>
     </row>
-    <row r="722" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A722" t="s">
         <v>728</v>
       </c>
@@ -21764,7 +21809,7 @@
         <v>982.07083333333298</v>
       </c>
     </row>
-    <row r="723" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A723" t="s">
         <v>729</v>
       </c>
@@ -21790,7 +21835,7 @@
         <v>12229.4333333333</v>
       </c>
     </row>
-    <row r="724" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A724" t="s">
         <v>730</v>
       </c>
@@ -21816,7 +21861,7 @@
         <v>849.36166666666702</v>
       </c>
     </row>
-    <row r="725" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A725" t="s">
         <v>731</v>
       </c>
@@ -21842,7 +21887,7 @@
         <v>675.56485294117601</v>
       </c>
     </row>
-    <row r="726" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A726" t="s">
         <v>732</v>
       </c>
@@ -21868,7 +21913,7 @@
         <v>870.05499999999995</v>
       </c>
     </row>
-    <row r="727" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A727" t="s">
         <v>733</v>
       </c>
@@ -21894,7 +21939,7 @@
         <v>28975</v>
       </c>
     </row>
-    <row r="728" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A728" t="s">
         <v>734</v>
       </c>
@@ -21920,7 +21965,7 @@
         <v>132114.67000000001</v>
       </c>
     </row>
-    <row r="729" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A729" t="s">
         <v>735</v>
       </c>
@@ -21946,7 +21991,7 @@
         <v>5650.1</v>
       </c>
     </row>
-    <row r="730" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A730" t="s">
         <v>736</v>
       </c>
@@ -21972,33 +22017,36 @@
         <v>1196.78</v>
       </c>
     </row>
-    <row r="731" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A731" t="s">
+    <row r="731" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A731" s="1" t="s">
         <v>737</v>
       </c>
-      <c r="B731">
+      <c r="B731" s="1">
         <v>2015</v>
       </c>
-      <c r="C731">
+      <c r="C731" s="1">
         <v>6305.8823529411802</v>
       </c>
-      <c r="D731">
+      <c r="D731" s="1">
         <v>1</v>
       </c>
-      <c r="E731">
+      <c r="E731" s="1">
         <v>1</v>
       </c>
-      <c r="F731">
+      <c r="F731" s="1">
         <v>70.794117647058798</v>
       </c>
-      <c r="G731">
+      <c r="G731" s="1">
         <v>5861224.5729411803</v>
       </c>
-      <c r="H731">
+      <c r="H731" s="1">
         <v>703346.945882353</v>
       </c>
-    </row>
-    <row r="732" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I731" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="732" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A732" t="s">
         <v>738</v>
       </c>
@@ -22024,7 +22072,7 @@
         <v>102692.466</v>
       </c>
     </row>
-    <row r="733" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A733" t="s">
         <v>739</v>
       </c>
@@ -22050,7 +22098,7 @@
         <v>36134.9</v>
       </c>
     </row>
-    <row r="734" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A734" t="s">
         <v>740</v>
       </c>
@@ -22076,7 +22124,7 @@
         <v>12621.752500000001</v>
       </c>
     </row>
-    <row r="735" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A735" t="s">
         <v>741</v>
       </c>
@@ -22102,7 +22150,7 @@
         <v>5953.11</v>
       </c>
     </row>
-    <row r="736" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A736" t="s">
         <v>742</v>
       </c>
@@ -22128,7 +22176,7 @@
         <v>5251.89</v>
       </c>
     </row>
-    <row r="737" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A737" t="s">
         <v>743</v>
       </c>
@@ -22154,7 +22202,7 @@
         <v>4300.9799999999996</v>
       </c>
     </row>
-    <row r="738" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A738" t="s">
         <v>744</v>
       </c>
@@ -22180,7 +22228,7 @@
         <v>4724.45272727273</v>
       </c>
     </row>
-    <row r="739" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A739" t="s">
         <v>745</v>
       </c>
@@ -22206,7 +22254,7 @@
         <v>4318.6955072463797</v>
       </c>
     </row>
-    <row r="740" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A740" t="s">
         <v>746</v>
       </c>
@@ -22232,7 +22280,7 @@
         <v>4445.62</v>
       </c>
     </row>
-    <row r="741" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A741" t="s">
         <v>747</v>
       </c>
@@ -22258,7 +22306,7 @@
         <v>4171.68</v>
       </c>
     </row>
-    <row r="742" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A742" t="s">
         <v>748</v>
       </c>
@@ -22284,7 +22332,7 @@
         <v>4299.29</v>
       </c>
     </row>
-    <row r="743" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A743" t="s">
         <v>749</v>
       </c>
@@ -22310,7 +22358,7 @@
         <v>5000.7266666666701</v>
       </c>
     </row>
-    <row r="744" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A744" t="s">
         <v>750</v>
       </c>
@@ -22336,7 +22384,7 @@
         <v>947.98</v>
       </c>
     </row>
-    <row r="745" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A745" t="s">
         <v>751</v>
       </c>
@@ -22362,7 +22410,7 @@
         <v>47012.66</v>
       </c>
     </row>
-    <row r="746" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A746" t="s">
         <v>752</v>
       </c>
@@ -22388,7 +22436,7 @@
         <v>1267.26</v>
       </c>
     </row>
-    <row r="747" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A747" t="s">
         <v>753</v>
       </c>
@@ -22414,7 +22462,7 @@
         <v>4109.95</v>
       </c>
     </row>
-    <row r="748" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A748" t="s">
         <v>754</v>
       </c>
@@ -22440,7 +22488,7 @@
         <v>710.49</v>
       </c>
     </row>
-    <row r="749" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A749" t="s">
         <v>755</v>
       </c>
@@ -22466,7 +22514,7 @@
         <v>4086.42</v>
       </c>
     </row>
-    <row r="750" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A750" t="s">
         <v>756</v>
       </c>
@@ -22492,7 +22540,7 @@
         <v>9693.94</v>
       </c>
     </row>
-    <row r="751" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A751" t="s">
         <v>757</v>
       </c>
@@ -22518,7 +22566,7 @@
         <v>7524.5103312190304</v>
       </c>
     </row>
-    <row r="752" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A752" t="s">
         <v>758</v>
       </c>
@@ -22544,7 +22592,7 @@
         <v>3082.71</v>
       </c>
     </row>
-    <row r="753" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A753" t="s">
         <v>759</v>
       </c>
@@ -22570,7 +22618,7 @@
         <v>5832.69</v>
       </c>
     </row>
-    <row r="754" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A754" t="s">
         <v>760</v>
       </c>
@@ -22596,7 +22644,7 @@
         <v>5660.7939999999999</v>
       </c>
     </row>
-    <row r="755" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A755" t="s">
         <v>761</v>
       </c>
@@ -22622,7 +22670,7 @@
         <v>7563.0483333333304</v>
       </c>
     </row>
-    <row r="756" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A756" t="s">
         <v>762</v>
       </c>
@@ -22648,7 +22696,7 @@
         <v>3851.5650000000001</v>
       </c>
     </row>
-    <row r="757" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A757" t="s">
         <v>763</v>
       </c>
@@ -22674,7 +22722,7 @@
         <v>5824.49</v>
       </c>
     </row>
-    <row r="758" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A758" t="s">
         <v>764</v>
       </c>
@@ -22700,7 +22748,7 @@
         <v>2693.58</v>
       </c>
     </row>
-    <row r="759" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A759" t="s">
         <v>765</v>
       </c>
@@ -22726,7 +22774,7 @@
         <v>4476.4853229974196</v>
       </c>
     </row>
-    <row r="760" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A760" t="s">
         <v>766</v>
       </c>
@@ -22752,7 +22800,7 @@
         <v>5199.0233333333299</v>
       </c>
     </row>
-    <row r="761" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A761" t="s">
         <v>767</v>
       </c>
@@ -22778,7 +22826,7 @@
         <v>4329.6499999999996</v>
       </c>
     </row>
-    <row r="762" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A762" t="s">
         <v>768</v>
       </c>
@@ -22804,7 +22852,7 @@
         <v>3651.9575</v>
       </c>
     </row>
-    <row r="763" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A763" t="s">
         <v>769</v>
       </c>
@@ -22830,7 +22878,7 @@
         <v>3988.4535000000001</v>
       </c>
     </row>
-    <row r="764" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A764" t="s">
         <v>770</v>
       </c>
@@ -22856,7 +22904,7 @@
         <v>4130.9753191489399</v>
       </c>
     </row>
-    <row r="765" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A765" t="s">
         <v>771</v>
       </c>
@@ -22882,7 +22930,7 @@
         <v>4773.1525000000001</v>
       </c>
     </row>
-    <row r="766" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A766" t="s">
         <v>772</v>
       </c>
@@ -22908,7 +22956,7 @@
         <v>14272.88</v>
       </c>
     </row>
-    <row r="767" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A767" t="s">
         <v>773</v>
       </c>
@@ -22934,7 +22982,7 @@
         <v>2870.15</v>
       </c>
     </row>
-    <row r="768" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A768" t="s">
         <v>774</v>
       </c>
@@ -22960,7 +23008,7 @@
         <v>3867.4675000000002</v>
       </c>
     </row>
-    <row r="769" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A769" t="s">
         <v>775</v>
       </c>
@@ -22986,7 +23034,7 @@
         <v>3185.1019999999999</v>
       </c>
     </row>
-    <row r="770" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A770" t="s">
         <v>776</v>
       </c>
@@ -23012,7 +23060,7 @@
         <v>8806.7308771929802</v>
       </c>
     </row>
-    <row r="771" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A771" t="s">
         <v>777</v>
       </c>
@@ -23038,7 +23086,7 @@
         <v>98123.531630977901</v>
       </c>
     </row>
-    <row r="772" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A772" t="s">
         <v>778</v>
       </c>
@@ -23064,7 +23112,7 @@
         <v>36007.14</v>
       </c>
     </row>
-    <row r="773" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A773" t="s">
         <v>779</v>
       </c>
@@ -23090,7 +23138,7 @@
         <v>64463.06</v>
       </c>
     </row>
-    <row r="774" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A774" t="s">
         <v>780</v>
       </c>
@@ -23116,7 +23164,7 @@
         <v>3110.99</v>
       </c>
     </row>
-    <row r="775" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A775" t="s">
         <v>781</v>
       </c>
@@ -23142,7 +23190,7 @@
         <v>5718.0442253521096</v>
       </c>
     </row>
-    <row r="776" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A776" t="s">
         <v>782</v>
       </c>
@@ -23168,7 +23216,7 @@
         <v>5598.4920537897297</v>
       </c>
     </row>
-    <row r="777" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A777" t="s">
         <v>783</v>
       </c>
@@ -23194,7 +23242,7 @@
         <v>5834.3130769230802</v>
       </c>
     </row>
-    <row r="778" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A778" t="s">
         <v>784</v>
       </c>
@@ -23220,7 +23268,7 @@
         <v>6626.9028571428598</v>
       </c>
     </row>
-    <row r="779" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A779" t="s">
         <v>785</v>
       </c>
@@ -23246,7 +23294,7 @@
         <v>85993.163453583402</v>
       </c>
     </row>
-    <row r="780" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A780" t="s">
         <v>786</v>
       </c>
@@ -23272,7 +23320,7 @@
         <v>764.05515151515203</v>
       </c>
     </row>
-    <row r="781" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A781" t="s">
         <v>787</v>
       </c>
@@ -23298,7 +23346,7 @@
         <v>2932.9259999999999</v>
       </c>
     </row>
-    <row r="782" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A782" t="s">
         <v>788</v>
       </c>
@@ -23324,7 +23372,7 @@
         <v>6044.7241666666696</v>
       </c>
     </row>
-    <row r="783" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A783" t="s">
         <v>789</v>
       </c>
@@ -23350,7 +23398,7 @@
         <v>3626.54</v>
       </c>
     </row>
-    <row r="784" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A784" t="s">
         <v>790</v>
       </c>
@@ -23376,7 +23424,7 @@
         <v>2831.7550000000001</v>
       </c>
     </row>
-    <row r="785" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A785" t="s">
         <v>791</v>
       </c>
@@ -23402,7 +23450,7 @@
         <v>13701.119520833299</v>
       </c>
     </row>
-    <row r="786" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A786" t="s">
         <v>792</v>
       </c>
@@ -23428,7 +23476,7 @@
         <v>2966.25</v>
       </c>
     </row>
-    <row r="787" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A787" t="s">
         <v>793</v>
       </c>
@@ -23454,7 +23502,7 @@
         <v>4804.2749999999996</v>
       </c>
     </row>
-    <row r="788" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A788" t="s">
         <v>794</v>
       </c>
@@ -23480,7 +23528,7 @@
         <v>4145.5069999999996</v>
       </c>
     </row>
-    <row r="789" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A789" t="s">
         <v>795</v>
       </c>
@@ -23506,7 +23554,7 @@
         <v>5800.5460000000003</v>
       </c>
     </row>
-    <row r="790" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A790" t="s">
         <v>796</v>
       </c>
@@ -23532,7 +23580,7 @@
         <v>4196.55</v>
       </c>
     </row>
-    <row r="791" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A791" t="s">
         <v>797</v>
       </c>
@@ -23558,7 +23606,7 @@
         <v>607.625</v>
       </c>
     </row>
-    <row r="792" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A792" t="s">
         <v>798</v>
       </c>
@@ -23584,7 +23632,7 @@
         <v>36709.480000000003</v>
       </c>
     </row>
-    <row r="793" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A793" t="s">
         <v>799</v>
       </c>
@@ -23610,7 +23658,7 @@
         <v>571.04999999999995</v>
       </c>
     </row>
-    <row r="794" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A794" t="s">
         <v>800</v>
       </c>
@@ -23636,7 +23684,7 @@
         <v>3639.8785240963898</v>
       </c>
     </row>
-    <row r="795" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A795" t="s">
         <v>801</v>
       </c>
@@ -23662,7 +23710,7 @@
         <v>2171.4299999999998</v>
       </c>
     </row>
-    <row r="796" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A796" t="s">
         <v>802</v>
       </c>
@@ -23688,7 +23736,7 @@
         <v>3842.57</v>
       </c>
     </row>
-    <row r="797" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A797" t="s">
         <v>803</v>
       </c>
@@ -23714,7 +23762,7 @@
         <v>70385.570000000007</v>
       </c>
     </row>
-    <row r="798" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A798" t="s">
         <v>804</v>
       </c>
@@ -23740,7 +23788,7 @@
         <v>838.56453703703698</v>
       </c>
     </row>
-    <row r="799" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A799" t="s">
         <v>805</v>
       </c>
@@ -23766,7 +23814,7 @@
         <v>21297.16</v>
       </c>
     </row>
-    <row r="800" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A800" t="s">
         <v>806</v>
       </c>
@@ -23792,7 +23840,7 @@
         <v>840.93</v>
       </c>
     </row>
-    <row r="801" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A801" t="s">
         <v>807</v>
       </c>
@@ -23818,7 +23866,7 @@
         <v>1653.8050000000001</v>
       </c>
     </row>
-    <row r="802" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A802" t="s">
         <v>808</v>
       </c>
@@ -23844,7 +23892,7 @@
         <v>7067.1181693210401</v>
       </c>
     </row>
-    <row r="803" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A803" t="s">
         <v>809</v>
       </c>
@@ -23870,7 +23918,7 @@
         <v>7477.85</v>
       </c>
     </row>
-    <row r="804" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A804" t="s">
         <v>810</v>
       </c>
@@ -23896,7 +23944,7 @@
         <v>475.28483870967699</v>
       </c>
     </row>
-    <row r="805" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A805" t="s">
         <v>811</v>
       </c>
@@ -23922,7 +23970,7 @@
         <v>9916.2590684931492</v>
       </c>
     </row>
-    <row r="806" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A806" t="s">
         <v>812</v>
       </c>
@@ -23948,7 +23996,7 @@
         <v>18274.1638311688</v>
       </c>
     </row>
-    <row r="807" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A807" t="s">
         <v>813</v>
       </c>
@@ -23974,7 +24022,7 @@
         <v>5687.75</v>
       </c>
     </row>
-    <row r="808" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A808" t="s">
         <v>814</v>
       </c>
@@ -24000,7 +24048,7 @@
         <v>6772.0093846153804</v>
       </c>
     </row>
-    <row r="809" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A809" t="s">
         <v>815</v>
       </c>
@@ -24026,7 +24074,7 @@
         <v>3819.904</v>
       </c>
     </row>
-    <row r="810" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A810" t="s">
         <v>816</v>
       </c>
@@ -24052,7 +24100,7 @@
         <v>20761.46</v>
       </c>
     </row>
-    <row r="811" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A811" t="s">
         <v>817</v>
       </c>
@@ -24078,7 +24126,7 @@
         <v>5790.84</v>
       </c>
     </row>
-    <row r="812" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A812" t="s">
         <v>818</v>
       </c>
@@ -24104,7 +24152,7 @@
         <v>31020.593333333301</v>
       </c>
     </row>
-    <row r="813" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A813" t="s">
         <v>819</v>
       </c>
@@ -24130,7 +24178,7 @@
         <v>3060.03</v>
       </c>
     </row>
-    <row r="814" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A814" t="s">
         <v>820</v>
       </c>
@@ -24156,7 +24204,7 @@
         <v>7887.8549999999996</v>
       </c>
     </row>
-    <row r="815" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A815" t="s">
         <v>821</v>
       </c>
@@ -24182,7 +24230,7 @@
         <v>3024.03</v>
       </c>
     </row>
-    <row r="816" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A816" t="s">
         <v>822</v>
       </c>
@@ -24208,7 +24256,7 @@
         <v>3706.8249999999998</v>
       </c>
     </row>
-    <row r="817" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A817" t="s">
         <v>823</v>
       </c>
@@ -24234,7 +24282,7 @@
         <v>62501.857076923101</v>
       </c>
     </row>
-    <row r="818" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A818" t="s">
         <v>824</v>
       </c>
@@ -24260,7 +24308,7 @@
         <v>4887.18</v>
       </c>
     </row>
-    <row r="819" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A819" t="s">
         <v>825</v>
       </c>
@@ -24286,7 +24334,7 @@
         <v>5537.89</v>
       </c>
     </row>
-    <row r="820" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A820" t="s">
         <v>826</v>
       </c>
@@ -24312,7 +24360,7 @@
         <v>5094.84</v>
       </c>
     </row>
-    <row r="821" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A821" t="s">
         <v>827</v>
       </c>
@@ -24338,7 +24386,7 @@
         <v>5138.1499999999996</v>
       </c>
     </row>
-    <row r="822" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A822" t="s">
         <v>828</v>
       </c>
@@ -24364,7 +24412,7 @@
         <v>4885.3266666666696</v>
       </c>
     </row>
-    <row r="823" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A823" t="s">
         <v>829</v>
       </c>
@@ -24390,7 +24438,7 @@
         <v>5191.53</v>
       </c>
     </row>
-    <row r="824" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A824" t="s">
         <v>830</v>
       </c>
@@ -24416,7 +24464,7 @@
         <v>3177.8733333333298</v>
       </c>
     </row>
-    <row r="825" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A825" t="s">
         <v>831</v>
       </c>
@@ -24442,7 +24490,7 @@
         <v>5767.7884999999997</v>
       </c>
     </row>
-    <row r="826" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A826" t="s">
         <v>832</v>
       </c>
@@ -24468,7 +24516,7 @@
         <v>5346.53</v>
       </c>
     </row>
-    <row r="827" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A827" t="s">
         <v>833</v>
       </c>
@@ -24494,7 +24542,7 @@
         <v>1415.55</v>
       </c>
     </row>
-    <row r="828" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A828" t="s">
         <v>834</v>
       </c>
@@ -24520,7 +24568,7 @@
         <v>3950.57</v>
       </c>
     </row>
-    <row r="829" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A829" t="s">
         <v>835</v>
       </c>
@@ -24546,7 +24594,7 @@
         <v>35035.769999999997</v>
       </c>
     </row>
-    <row r="830" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A830" t="s">
         <v>836</v>
       </c>
@@ -24572,7 +24620,7 @@
         <v>4248.2633333333297</v>
       </c>
     </row>
-    <row r="831" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A831" t="s">
         <v>837</v>
       </c>
@@ -24598,7 +24646,7 @@
         <v>9964.8566666666702</v>
       </c>
     </row>
-    <row r="832" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A832" t="s">
         <v>838</v>
       </c>
@@ -24624,7 +24672,7 @@
         <v>1793.9</v>
       </c>
     </row>
-    <row r="833" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A833" t="s">
         <v>839</v>
       </c>
@@ -24650,7 +24698,7 @@
         <v>836.05</v>
       </c>
     </row>
-    <row r="834" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A834" t="s">
         <v>840</v>
       </c>
@@ -24676,7 +24724,7 @@
         <v>3833.7</v>
       </c>
     </row>
-    <row r="835" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A835" t="s">
         <v>841</v>
       </c>
@@ -24702,7 +24750,7 @@
         <v>1440.895</v>
       </c>
     </row>
-    <row r="836" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A836" t="s">
         <v>842</v>
       </c>
@@ -24728,7 +24776,7 @@
         <v>637.16999999999996</v>
       </c>
     </row>
-    <row r="837" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A837" t="s">
         <v>843</v>
       </c>
@@ -24754,7 +24802,7 @@
         <v>862.23199999999997</v>
       </c>
     </row>
-    <row r="838" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A838" t="s">
         <v>844</v>
       </c>
@@ -24780,7 +24828,7 @@
         <v>4781.0479166666701</v>
       </c>
     </row>
-    <row r="839" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A839" t="s">
         <v>845</v>
       </c>
@@ -24806,7 +24854,7 @@
         <v>734.82</v>
       </c>
     </row>
-    <row r="840" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A840" t="s">
         <v>846</v>
       </c>
@@ -24832,7 +24880,7 @@
         <v>1966.9166666666699</v>
       </c>
     </row>
-    <row r="841" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A841" t="s">
         <v>847</v>
       </c>
@@ -24858,7 +24906,7 @@
         <v>8559.56</v>
       </c>
     </row>
-    <row r="842" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A842" t="s">
         <v>848</v>
       </c>
@@ -24884,7 +24932,7 @@
         <v>2105.61</v>
       </c>
     </row>
-    <row r="843" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A843" t="s">
         <v>849</v>
       </c>
@@ -24910,33 +24958,36 @@
         <v>6621.9750000000004</v>
       </c>
     </row>
-    <row r="844" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A844" t="s">
+    <row r="844" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A844" s="1" t="s">
         <v>850</v>
       </c>
-      <c r="B844">
+      <c r="B844" s="1">
         <v>2016</v>
       </c>
-      <c r="C844">
+      <c r="C844" s="1">
         <v>155.39559427087701</v>
       </c>
-      <c r="D844">
-        <v>2</v>
-      </c>
-      <c r="E844">
-        <v>0</v>
-      </c>
-      <c r="F844">
+      <c r="D844" s="1">
+        <v>2</v>
+      </c>
+      <c r="E844" s="1">
+        <v>0</v>
+      </c>
+      <c r="F844" s="1">
         <v>7.7979730295669699E-4</v>
       </c>
-      <c r="G844">
+      <c r="G844" s="1">
         <v>962759.24099142896</v>
       </c>
-      <c r="H844">
+      <c r="H844" s="1">
         <v>115531.133290058</v>
       </c>
-    </row>
-    <row r="845" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I844" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="845" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A845" t="s">
         <v>851</v>
       </c>
@@ -24962,7 +25013,7 @@
         <v>3595.252</v>
       </c>
     </row>
-    <row r="846" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A846" t="s">
         <v>852</v>
       </c>
@@ -24988,7 +25039,7 @@
         <v>3648.29</v>
       </c>
     </row>
-    <row r="847" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A847" t="s">
         <v>853</v>
       </c>
@@ -25014,7 +25065,7 @@
         <v>1888.19</v>
       </c>
     </row>
-    <row r="848" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A848" t="s">
         <v>854</v>
       </c>
@@ -25040,7 +25091,7 @@
         <v>326.41475409836102</v>
       </c>
     </row>
-    <row r="849" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A849" t="s">
         <v>855</v>
       </c>
@@ -25066,7 +25117,7 @@
         <v>1106.885</v>
       </c>
     </row>
-    <row r="850" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A850" t="s">
         <v>856</v>
       </c>
@@ -25092,7 +25143,7 @@
         <v>6850.08</v>
       </c>
     </row>
-    <row r="851" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A851" t="s">
         <v>857</v>
       </c>
@@ -25118,7 +25169,7 @@
         <v>328.00698924731199</v>
       </c>
     </row>
-    <row r="852" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A852" t="s">
         <v>858</v>
       </c>
@@ -25144,7 +25195,7 @@
         <v>1369.45</v>
       </c>
     </row>
-    <row r="853" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A853" t="s">
         <v>859</v>
       </c>
@@ -25170,7 +25221,7 @@
         <v>9266.0560000000005</v>
       </c>
     </row>
-    <row r="854" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A854" t="s">
         <v>860</v>
       </c>
@@ -25196,7 +25247,7 @@
         <v>54505.741427425797</v>
       </c>
     </row>
-    <row r="855" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A855" t="s">
         <v>861</v>
       </c>
@@ -25222,7 +25273,7 @@
         <v>139069.725357143</v>
       </c>
     </row>
-    <row r="856" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A856" t="s">
         <v>862</v>
       </c>
@@ -25248,7 +25299,7 @@
         <v>542.66999999999996</v>
       </c>
     </row>
-    <row r="857" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A857" t="s">
         <v>863</v>
       </c>
@@ -25274,7 +25325,7 @@
         <v>1449.31</v>
       </c>
     </row>
-    <row r="858" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A858" t="s">
         <v>864</v>
       </c>
@@ -25300,7 +25351,7 @@
         <v>972.269583333333</v>
       </c>
     </row>
-    <row r="859" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A859" t="s">
         <v>865</v>
       </c>
@@ -25326,7 +25377,7 @@
         <v>1454.2950000000001</v>
       </c>
     </row>
-    <row r="860" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A860" t="s">
         <v>866</v>
       </c>
@@ -25352,7 +25403,7 @@
         <v>1164.8699999999999</v>
       </c>
     </row>
-    <row r="861" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A861" t="s">
         <v>867</v>
       </c>
@@ -25378,7 +25429,7 @@
         <v>757.596</v>
       </c>
     </row>
-    <row r="862" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A862" t="s">
         <v>868</v>
       </c>
@@ -25404,7 +25455,7 @@
         <v>679.21400000000006</v>
       </c>
     </row>
-    <row r="863" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A863" t="s">
         <v>869</v>
       </c>
@@ -25430,7 +25481,7 @@
         <v>3269.75</v>
       </c>
     </row>
-    <row r="864" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A864" t="s">
         <v>870</v>
       </c>
@@ -25456,7 +25507,7 @@
         <v>5582.125</v>
       </c>
     </row>
-    <row r="865" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A865" t="s">
         <v>871</v>
       </c>
@@ -25482,7 +25533,7 @@
         <v>35494.165000000001</v>
       </c>
     </row>
-    <row r="866" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="866" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A866" t="s">
         <v>872</v>
       </c>
@@ -25508,7 +25559,7 @@
         <v>716.01</v>
       </c>
     </row>
-    <row r="867" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="867" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A867" t="s">
         <v>873</v>
       </c>
@@ -25534,7 +25585,7 @@
         <v>74333.960000000006</v>
       </c>
     </row>
-    <row r="868" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="868" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A868" t="s">
         <v>874</v>
       </c>
@@ -25560,7 +25611,7 @@
         <v>2415.4716216216202</v>
       </c>
     </row>
-    <row r="869" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="869" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A869" t="s">
         <v>875</v>
       </c>
@@ -25587,6 +25638,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I869" xr:uid="{B2693448-C8E5-4C88-8532-AB4B8E75A293}">
+    <filterColumn colId="8">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
